--- a/LR3/table_1_17.xlsx
+++ b/LR3/table_1_17.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgMcmdSB6HDEbSyT/mSg4d/nQ8PeA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miOVOz+nfj9rSUs/wqYBhP27VaQgQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -475,7 +475,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1">
-        <v>31.0</v>
+        <v>17.0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -565,11 +565,11 @@
       </c>
       <c r="D3" s="2">
         <f>A1 * 1.1</f>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E38" si="1">C3 * D3</f>
-        <v>2387</v>
+        <v>1309</v>
       </c>
       <c r="F3" s="5">
         <v>44813.0</v>
@@ -590,7 +590,7 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K38" si="4">E3+J3</f>
-        <v>2387</v>
+        <v>1309</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -622,24 +622,26 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D34" si="7">D3</f>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>2369.95</v>
+        <v>1299.65</v>
       </c>
       <c r="F4" s="5">
-        <v>44813.0</v>
+        <f t="shared" ref="F4:F38" si="8">F3</f>
+        <v>44813</v>
       </c>
       <c r="G4" s="6">
-        <v>44806.0</v>
+        <f t="shared" ref="G4:G38" si="9">G3 + 1</f>
+        <v>44806</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I38" si="8">I3</f>
+        <f t="shared" ref="I4:I38" si="10">I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -648,7 +650,7 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" si="4"/>
-        <v>2369.95</v>
+        <v>1299.65</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -680,24 +682,26 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>2352.9</v>
+        <v>1290.3</v>
       </c>
       <c r="F5" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G5" s="6">
-        <v>44807.0</v>
+        <f t="shared" si="9"/>
+        <v>44807</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -706,7 +710,7 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" si="4"/>
-        <v>2352.9</v>
+        <v>1290.3</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -738,24 +742,26 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>2335.85</v>
+        <v>1280.95</v>
       </c>
       <c r="F6" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G6" s="6">
-        <v>44808.0</v>
+        <f t="shared" si="9"/>
+        <v>44808</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -764,7 +770,7 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" si="4"/>
-        <v>2335.85</v>
+        <v>1280.95</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -796,24 +802,26 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="1"/>
-        <v>2318.8</v>
+        <v>1271.6</v>
       </c>
       <c r="F7" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G7" s="6">
-        <v>44809.0</v>
+        <f t="shared" si="9"/>
+        <v>44809</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -822,7 +830,7 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" si="4"/>
-        <v>2318.8</v>
+        <v>1271.6</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -854,24 +862,26 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="1"/>
-        <v>2301.75</v>
+        <v>1262.25</v>
       </c>
       <c r="F8" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G8" s="6">
-        <v>44810.0</v>
+        <f t="shared" si="9"/>
+        <v>44810</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -880,7 +890,7 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" si="4"/>
-        <v>2301.75</v>
+        <v>1262.25</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -912,24 +922,26 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="1"/>
-        <v>2284.7</v>
+        <v>1252.9</v>
       </c>
       <c r="F9" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G9" s="6">
-        <v>44811.0</v>
+        <f t="shared" si="9"/>
+        <v>44811</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -938,7 +950,7 @@
       </c>
       <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>2284.7</v>
+        <v>1252.9</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -970,24 +982,26 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="1"/>
-        <v>2267.65</v>
+        <v>1243.55</v>
       </c>
       <c r="F10" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G10" s="6">
-        <v>44812.0</v>
+        <f t="shared" si="9"/>
+        <v>44812</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -996,7 +1010,7 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>2267.65</v>
+        <v>1243.55</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1028,24 +1042,26 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="1"/>
-        <v>2250.6</v>
+        <v>1234.2</v>
       </c>
       <c r="F11" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G11" s="6">
-        <v>44813.0</v>
+        <f t="shared" si="9"/>
+        <v>44813</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1054,7 +1070,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="4"/>
-        <v>2250.6</v>
+        <v>1234.2</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1086,24 +1102,26 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="1"/>
-        <v>2233.55</v>
+        <v>1224.85</v>
       </c>
       <c r="F12" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G12" s="6">
-        <v>44814.0</v>
+        <f t="shared" si="9"/>
+        <v>44814</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1112,7 +1130,7 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="4"/>
-        <v>2243.55</v>
+        <v>1234.85</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1144,24 +1162,26 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="1"/>
-        <v>2216.5</v>
+        <v>1215.5</v>
       </c>
       <c r="F13" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G13" s="6">
-        <v>44815.0</v>
+        <f t="shared" si="9"/>
+        <v>44815</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1170,7 +1190,7 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="4"/>
-        <v>2236.5</v>
+        <v>1235.5</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1202,24 +1222,26 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>2199.45</v>
+        <v>1206.15</v>
       </c>
       <c r="F14" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G14" s="6">
-        <v>44816.0</v>
+        <f t="shared" si="9"/>
+        <v>44816</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1228,7 +1250,7 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="4"/>
-        <v>2229.45</v>
+        <v>1236.15</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1260,24 +1282,26 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>2182.4</v>
+        <v>1196.8</v>
       </c>
       <c r="F15" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G15" s="6">
-        <v>44817.0</v>
+        <f t="shared" si="9"/>
+        <v>44817</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1286,7 +1310,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="4"/>
-        <v>2222.4</v>
+        <v>1236.8</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1318,24 +1342,26 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="1"/>
-        <v>2165.35</v>
+        <v>1187.45</v>
       </c>
       <c r="F16" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G16" s="6">
-        <v>44818.0</v>
+        <f t="shared" si="9"/>
+        <v>44818</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1344,7 +1370,7 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="4"/>
-        <v>2215.35</v>
+        <v>1237.45</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1376,24 +1402,26 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="1"/>
-        <v>2148.3</v>
+        <v>1178.1</v>
       </c>
       <c r="F17" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G17" s="6">
-        <v>44819.0</v>
+        <f t="shared" si="9"/>
+        <v>44819</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1402,7 +1430,7 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="4"/>
-        <v>2208.3</v>
+        <v>1238.1</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1434,24 +1462,26 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>2131.25</v>
+        <v>1168.75</v>
       </c>
       <c r="F18" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G18" s="6">
-        <v>44820.0</v>
+        <f t="shared" si="9"/>
+        <v>44820</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1460,7 +1490,7 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="4"/>
-        <v>2201.25</v>
+        <v>1238.75</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1492,24 +1522,26 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="1"/>
-        <v>2114.2</v>
+        <v>1159.4</v>
       </c>
       <c r="F19" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G19" s="6">
-        <v>44821.0</v>
+        <f t="shared" si="9"/>
+        <v>44821</v>
       </c>
       <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1518,7 +1550,7 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="4"/>
-        <v>2194.2</v>
+        <v>1239.4</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1550,24 +1582,26 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="1"/>
-        <v>2097.15</v>
+        <v>1150.05</v>
       </c>
       <c r="F20" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G20" s="6">
-        <v>44822.0</v>
+        <f t="shared" si="9"/>
+        <v>44822</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1576,7 +1610,7 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="4"/>
-        <v>2187.15</v>
+        <v>1240.05</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1608,24 +1642,26 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="1"/>
-        <v>2080.1</v>
+        <v>1140.7</v>
       </c>
       <c r="F21" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G21" s="6">
-        <v>44823.0</v>
+        <f t="shared" si="9"/>
+        <v>44823</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1634,7 +1670,7 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="4"/>
-        <v>2180.1</v>
+        <v>1240.7</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1666,24 +1702,26 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="1"/>
-        <v>2063.05</v>
+        <v>1131.35</v>
       </c>
       <c r="F22" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G22" s="6">
-        <v>44824.0</v>
+        <f t="shared" si="9"/>
+        <v>44824</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1692,7 +1730,7 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="4"/>
-        <v>2173.05</v>
+        <v>1241.35</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1724,24 +1762,26 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>2046</v>
+        <v>1122</v>
       </c>
       <c r="F23" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G23" s="6">
-        <v>44825.0</v>
+        <f t="shared" si="9"/>
+        <v>44825</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1750,7 +1790,7 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="4"/>
-        <v>2166</v>
+        <v>1242</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1782,24 +1822,26 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>2028.95</v>
+        <v>1112.65</v>
       </c>
       <c r="F24" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G24" s="6">
-        <v>44826.0</v>
+        <f t="shared" si="9"/>
+        <v>44826</v>
       </c>
       <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1808,7 +1850,7 @@
       </c>
       <c r="K24" s="2">
         <f t="shared" si="4"/>
-        <v>2158.95</v>
+        <v>1242.65</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1840,24 +1882,26 @@
       </c>
       <c r="D25" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>2011.9</v>
+        <v>1103.3</v>
       </c>
       <c r="F25" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G25" s="6">
-        <v>44827.0</v>
+        <f t="shared" si="9"/>
+        <v>44827</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1866,7 +1910,7 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="4"/>
-        <v>2151.9</v>
+        <v>1243.3</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1898,24 +1942,26 @@
       </c>
       <c r="D26" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>1994.85</v>
+        <v>1093.95</v>
       </c>
       <c r="F26" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G26" s="6">
-        <v>44828.0</v>
+        <f t="shared" si="9"/>
+        <v>44828</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1924,7 +1970,7 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="4"/>
-        <v>2144.85</v>
+        <v>1243.95</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1956,24 +2002,26 @@
       </c>
       <c r="D27" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="1"/>
-        <v>1977.8</v>
+        <v>1084.6</v>
       </c>
       <c r="F27" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G27" s="6">
-        <v>44829.0</v>
+        <f t="shared" si="9"/>
+        <v>44829</v>
       </c>
       <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1982,7 +2030,7 @@
       </c>
       <c r="K27" s="2">
         <f t="shared" si="4"/>
-        <v>2137.8</v>
+        <v>1244.6</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -2014,24 +2062,26 @@
       </c>
       <c r="D28" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
-        <v>1960.75</v>
+        <v>1075.25</v>
       </c>
       <c r="F28" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G28" s="6">
-        <v>44830.0</v>
+        <f t="shared" si="9"/>
+        <v>44830</v>
       </c>
       <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -2040,7 +2090,7 @@
       </c>
       <c r="K28" s="2">
         <f t="shared" si="4"/>
-        <v>2130.75</v>
+        <v>1245.25</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2072,24 +2122,26 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>1943.7</v>
+        <v>1065.9</v>
       </c>
       <c r="F29" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G29" s="6">
-        <v>44831.0</v>
+        <f t="shared" si="9"/>
+        <v>44831</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -2098,7 +2150,7 @@
       </c>
       <c r="K29" s="2">
         <f t="shared" si="4"/>
-        <v>2123.7</v>
+        <v>1245.9</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -2130,24 +2182,26 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
-        <v>1926.65</v>
+        <v>1056.55</v>
       </c>
       <c r="F30" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G30" s="6">
-        <v>44832.0</v>
+        <f t="shared" si="9"/>
+        <v>44832</v>
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -2156,7 +2210,7 @@
       </c>
       <c r="K30" s="2">
         <f t="shared" si="4"/>
-        <v>2116.65</v>
+        <v>1246.55</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -2188,24 +2242,26 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>1909.6</v>
+        <v>1047.2</v>
       </c>
       <c r="F31" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G31" s="6">
-        <v>44833.0</v>
+        <f t="shared" si="9"/>
+        <v>44833</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -2214,7 +2270,7 @@
       </c>
       <c r="K31" s="2">
         <f t="shared" si="4"/>
-        <v>2109.6</v>
+        <v>1247.2</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2246,24 +2302,26 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>1892.55</v>
+        <v>1037.85</v>
       </c>
       <c r="F32" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G32" s="6">
-        <v>44834.0</v>
+        <f t="shared" si="9"/>
+        <v>44834</v>
       </c>
       <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -2272,7 +2330,7 @@
       </c>
       <c r="K32" s="2">
         <f t="shared" si="4"/>
-        <v>2102.55</v>
+        <v>1247.85</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2304,24 +2362,26 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>1875.5</v>
+        <v>1028.5</v>
       </c>
       <c r="F33" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G33" s="6">
-        <v>44835.0</v>
+        <f t="shared" si="9"/>
+        <v>44835</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2330,7 +2390,7 @@
       </c>
       <c r="K33" s="2">
         <f t="shared" si="4"/>
-        <v>2095.5</v>
+        <v>1248.5</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2362,24 +2422,26 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" si="7"/>
-        <v>34.1</v>
+        <v>18.7</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
-        <v>1858.45</v>
+        <v>1019.15</v>
       </c>
       <c r="F34" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G34" s="6">
-        <v>44836.0</v>
+        <f t="shared" si="9"/>
+        <v>44836</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2388,7 +2450,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="4"/>
-        <v>2088.45</v>
+        <v>1249.15</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -2419,25 +2481,27 @@
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" ref="D35:D38" si="9">D3 / 2</f>
-        <v>17.05</v>
+        <f t="shared" ref="D35:D38" si="11">D3 / 2</f>
+        <v>9.35</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
-        <v>920.7</v>
+        <v>504.9</v>
       </c>
       <c r="F35" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G35" s="6">
-        <v>44837.0</v>
+        <f t="shared" si="9"/>
+        <v>44837</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2446,7 +2510,7 @@
       </c>
       <c r="K35" s="2">
         <f t="shared" si="4"/>
-        <v>1160.7</v>
+        <v>744.9</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -2477,25 +2541,27 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="9"/>
-        <v>17.05</v>
+        <f t="shared" si="11"/>
+        <v>9.35</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
-        <v>912.175</v>
+        <v>500.225</v>
       </c>
       <c r="F36" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G36" s="6">
-        <v>44838.0</v>
+        <f t="shared" si="9"/>
+        <v>44838</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2504,7 +2570,7 @@
       </c>
       <c r="K36" s="2">
         <f t="shared" si="4"/>
-        <v>1162.175</v>
+        <v>750.225</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -2535,25 +2601,27 @@
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="9"/>
-        <v>17.05</v>
+        <f t="shared" si="11"/>
+        <v>9.35</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
-        <v>903.65</v>
+        <v>495.55</v>
       </c>
       <c r="F37" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G37" s="6">
-        <v>44839.0</v>
+        <f t="shared" si="9"/>
+        <v>44839</v>
       </c>
       <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2562,7 +2630,7 @@
       </c>
       <c r="K37" s="2">
         <f t="shared" si="4"/>
-        <v>1163.65</v>
+        <v>755.55</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -2593,25 +2661,27 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="9"/>
-        <v>17.05</v>
+        <f t="shared" si="11"/>
+        <v>9.35</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
-        <v>895.125</v>
+        <v>490.875</v>
       </c>
       <c r="F38" s="5">
-        <v>44813.0</v>
+        <f t="shared" si="8"/>
+        <v>44813</v>
       </c>
       <c r="G38" s="6">
-        <v>44840.0</v>
+        <f t="shared" si="9"/>
+        <v>44840</v>
       </c>
       <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2620,7 +2690,7 @@
       </c>
       <c r="K38" s="2">
         <f t="shared" si="4"/>
-        <v>1165.125</v>
+        <v>760.875</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -2673,7 +2743,7 @@
       </c>
       <c r="C40" s="2">
         <f>SUM(K3:K38 )</f>
-        <v>75338.85</v>
+        <v>43021.95</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2772,7 +2842,7 @@
       </c>
       <c r="C43" s="2">
         <f>MAX(E3:E38)</f>
-        <v>2387</v>
+        <v>1309</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>

--- a/LR3/table_1_17.xlsx
+++ b/LR3/table_1_17.xlsx
@@ -226,25 +226,25 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/LR3/table_1_17.xlsx
+++ b/LR3/table_1_17.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E88385A-3738-42DA-AC9C-7FF8B2180697}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1D8658-324A-4C77-98FE-C46B12F177FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miOVOz+nfj9rSUs/wqYBhP27VaQgQ=="/>
     </ext>
@@ -162,6 +173,9 @@
     <t>Шаймарданова</t>
   </si>
   <si>
+    <t>Кузин</t>
+  </si>
+  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
@@ -174,17 +188,14 @@
     <t>Максимальный срок просрочки</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате</t>
-  </si>
-  <si>
-    <t>Кузин</t>
+    <t>Максимальная сумма</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -243,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -482,11 +493,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
@@ -500,7 +511,7 @@
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="3">
         <v>17</v>
       </c>
@@ -530,7 +541,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -580,7 +591,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -635,7 +646,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A38" si="4">1 + A3</f>
         <v>2</v>
@@ -695,7 +706,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -755,7 +766,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -815,7 +826,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -875,7 +886,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -935,7 +946,7 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -995,7 +1006,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -1055,7 +1066,7 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1115,7 +1126,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -1175,7 +1186,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1235,7 +1246,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1295,7 +1306,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1355,7 +1366,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1415,7 +1426,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1475,7 +1486,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1535,7 +1546,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1595,7 +1606,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1655,7 +1666,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1715,7 +1726,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1775,7 +1786,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1835,7 +1846,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1895,7 +1906,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="3">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1955,7 +1966,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="3">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -2015,7 +2026,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="3">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -2075,7 +2086,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="3">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -2135,7 +2146,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -2195,7 +2206,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="3">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -2255,7 +2266,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="3">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -2315,7 +2326,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="3">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -2375,7 +2386,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="3">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -2435,7 +2446,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2495,7 +2506,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="3">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2555,7 +2566,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="3">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2615,13 +2626,13 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="3">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="5"/>
@@ -2675,13 +2686,13 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="3">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="5"/>
@@ -2735,7 +2746,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2763,10 +2774,10 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38 )</f>
@@ -2796,10 +2807,10 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
@@ -2829,10 +2840,10 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3">
         <f>MAX(H3:H38)</f>
@@ -2862,10 +2873,10 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="3">
         <f>MAX(E3:E38)</f>
@@ -2895,7 +2906,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2923,7 +2934,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2951,7 +2962,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2979,7 +2990,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3007,7 +3018,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3035,7 +3046,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3063,7 +3074,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3091,7 +3102,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3119,7 +3130,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3147,7 +3158,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3175,7 +3186,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3203,7 +3214,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3231,7 +3242,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3259,7 +3270,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3287,7 +3298,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3315,7 +3326,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3343,7 +3354,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3371,7 +3382,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3399,7 +3410,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3427,7 +3438,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3455,7 +3466,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3483,7 +3494,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3511,7 +3522,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3539,7 +3550,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3567,7 +3578,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3595,7 +3606,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3623,7 +3634,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3651,7 +3662,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3679,7 +3690,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3707,7 +3718,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3735,7 +3746,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3763,7 +3774,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3791,7 +3802,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3819,7 +3830,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3847,7 +3858,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3875,7 +3886,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3903,7 +3914,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3931,7 +3942,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3959,7 +3970,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3987,7 +3998,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4015,7 +4026,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4043,7 +4054,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4071,7 +4082,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4099,7 +4110,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4127,7 +4138,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4155,7 +4166,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4183,7 +4194,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4211,7 +4222,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4239,7 +4250,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4267,7 +4278,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4295,7 +4306,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4323,7 +4334,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4351,7 +4362,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4379,7 +4390,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4407,7 +4418,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4435,7 +4446,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4463,7 +4474,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4491,7 +4502,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4519,7 +4530,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4547,7 +4558,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4575,7 +4586,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4603,7 +4614,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4631,7 +4642,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4659,7 +4670,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4687,7 +4698,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4715,7 +4726,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4743,7 +4754,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4771,7 +4782,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4799,7 +4810,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4827,7 +4838,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4855,7 +4866,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4883,7 +4894,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4911,7 +4922,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4939,7 +4950,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4967,7 +4978,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4995,7 +5006,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5023,7 +5034,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5051,7 +5062,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5079,7 +5090,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5107,7 +5118,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5135,7 +5146,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5163,7 +5174,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5191,7 +5202,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5219,7 +5230,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5247,7 +5258,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5275,7 +5286,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5303,7 +5314,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5331,7 +5342,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5359,7 +5370,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5387,7 +5398,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5415,7 +5426,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5443,7 +5454,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5471,7 +5482,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5499,7 +5510,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5527,7 +5538,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5555,7 +5566,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5583,7 +5594,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5611,7 +5622,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5639,7 +5650,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5667,7 +5678,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5695,7 +5706,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5723,7 +5734,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5751,7 +5762,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5779,7 +5790,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5807,7 +5818,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5835,7 +5846,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5863,7 +5874,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5891,7 +5902,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5919,7 +5930,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5947,7 +5958,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5975,7 +5986,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6003,7 +6014,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6031,7 +6042,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6059,7 +6070,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6087,7 +6098,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6115,7 +6126,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6143,7 +6154,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6171,7 +6182,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6199,7 +6210,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6227,7 +6238,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6255,7 +6266,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6283,7 +6294,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6311,7 +6322,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6339,7 +6350,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6367,7 +6378,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6395,7 +6406,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6423,7 +6434,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6451,7 +6462,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6479,7 +6490,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6507,7 +6518,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6535,7 +6546,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6563,7 +6574,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6591,7 +6602,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6619,7 +6630,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6647,7 +6658,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6675,7 +6686,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6703,7 +6714,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6731,7 +6742,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6759,7 +6770,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6787,7 +6798,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6815,7 +6826,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6843,7 +6854,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6871,7 +6882,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6899,7 +6910,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6927,7 +6938,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6955,7 +6966,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6983,7 +6994,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7011,7 +7022,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7039,7 +7050,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7067,7 +7078,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7095,7 +7106,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7123,7 +7134,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7151,7 +7162,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7179,7 +7190,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7207,7 +7218,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7235,7 +7246,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7263,7 +7274,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7291,7 +7302,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7319,7 +7330,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7347,7 +7358,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7375,7 +7386,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7403,7 +7414,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7431,7 +7442,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7459,7 +7470,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7487,7 +7498,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7515,7 +7526,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7543,7 +7554,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7571,7 +7582,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7599,7 +7610,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7627,7 +7638,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7655,7 +7666,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7683,7 +7694,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7711,7 +7722,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7739,7 +7750,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7767,7 +7778,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7795,7 +7806,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7823,7 +7834,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7851,7 +7862,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7879,7 +7890,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7907,7 +7918,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7935,7 +7946,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7963,7 +7974,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7991,7 +8002,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8019,7 +8030,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8047,7 +8058,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8075,7 +8086,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8103,7 +8114,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8131,7 +8142,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8159,7 +8170,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8187,7 +8198,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8215,7 +8226,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8243,7 +8254,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8271,7 +8282,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8299,7 +8310,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8327,7 +8338,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8355,7 +8366,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8383,7 +8394,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8411,7 +8422,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8439,7 +8450,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8467,7 +8478,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8495,7 +8506,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8523,7 +8534,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8551,7 +8562,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8579,7 +8590,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8607,7 +8618,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8635,7 +8646,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8663,7 +8674,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8691,7 +8702,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8719,7 +8730,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8747,7 +8758,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8775,7 +8786,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8803,7 +8814,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8831,7 +8842,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8859,7 +8870,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8887,7 +8898,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8915,7 +8926,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8943,7 +8954,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8971,7 +8982,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8999,7 +9010,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9027,7 +9038,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9055,7 +9066,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9083,7 +9094,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9111,7 +9122,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9139,7 +9150,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9167,7 +9178,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9195,7 +9206,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9223,7 +9234,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9251,7 +9262,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9279,7 +9290,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9307,7 +9318,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9335,7 +9346,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9363,7 +9374,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9391,7 +9402,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -9419,7 +9430,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -9447,7 +9458,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -9475,7 +9486,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -9503,7 +9514,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -9531,7 +9542,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9559,7 +9570,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9587,7 +9598,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9615,7 +9626,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9643,7 +9654,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9671,7 +9682,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -9699,7 +9710,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -9727,7 +9738,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -9755,7 +9766,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -9783,7 +9794,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -9811,7 +9822,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -9839,7 +9850,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -9867,7 +9878,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -9895,7 +9906,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -9923,7 +9934,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -9951,7 +9962,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -9979,7 +9990,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10007,7 +10018,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10035,7 +10046,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10063,7 +10074,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10091,7 +10102,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10119,7 +10130,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10147,7 +10158,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10175,7 +10186,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10203,7 +10214,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10231,7 +10242,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10259,7 +10270,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -10287,7 +10298,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -10315,7 +10326,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -10343,7 +10354,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -10371,7 +10382,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -10399,7 +10410,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -10427,7 +10438,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -10455,7 +10466,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -10483,7 +10494,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -10511,7 +10522,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -10539,7 +10550,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -10567,7 +10578,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -10595,7 +10606,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -10623,7 +10634,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -10651,7 +10662,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -10679,7 +10690,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -10707,7 +10718,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -10735,7 +10746,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -10763,7 +10774,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -10791,7 +10802,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -10819,7 +10830,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -10847,7 +10858,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -10875,7 +10886,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -10903,7 +10914,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -10931,7 +10942,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -10959,7 +10970,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -10987,7 +10998,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11015,7 +11026,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11043,7 +11054,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11071,7 +11082,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11099,7 +11110,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11127,7 +11138,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11155,7 +11166,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11183,7 +11194,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -11211,7 +11222,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -11239,7 +11250,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -11267,7 +11278,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -11295,7 +11306,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -11323,7 +11334,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -11351,7 +11362,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -11379,7 +11390,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -11407,7 +11418,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -11435,7 +11446,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -11463,7 +11474,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -11491,7 +11502,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -11519,7 +11530,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -11547,7 +11558,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -11575,7 +11586,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -11603,7 +11614,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -11631,7 +11642,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -11659,7 +11670,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -11687,7 +11698,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -11715,7 +11726,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -11743,7 +11754,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -11771,7 +11782,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -11799,7 +11810,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -11827,7 +11838,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -11855,7 +11866,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -11883,7 +11894,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -11911,7 +11922,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -11939,7 +11950,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -11967,7 +11978,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -11995,7 +12006,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12023,7 +12034,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12051,7 +12062,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12079,7 +12090,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12107,7 +12118,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12135,7 +12146,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12163,7 +12174,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -12191,7 +12202,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -12219,7 +12230,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -12247,7 +12258,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -12275,7 +12286,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -12303,7 +12314,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -12331,7 +12342,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -12359,7 +12370,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -12387,7 +12398,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -12415,7 +12426,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -12443,7 +12454,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -12471,7 +12482,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -12499,7 +12510,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -12527,7 +12538,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -12555,7 +12566,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -12583,7 +12594,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -12611,7 +12622,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -12639,7 +12650,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -12667,7 +12678,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -12695,7 +12706,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -12723,7 +12734,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -12751,7 +12762,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -12779,7 +12790,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -12807,7 +12818,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -12835,7 +12846,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -12863,7 +12874,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -12891,7 +12902,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -12919,7 +12930,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -12947,7 +12958,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -12975,7 +12986,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13003,7 +13014,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13031,7 +13042,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13059,7 +13070,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13087,7 +13098,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13115,7 +13126,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13143,7 +13154,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -13171,7 +13182,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -13199,7 +13210,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -13227,7 +13238,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -13255,7 +13266,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -13283,7 +13294,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -13311,7 +13322,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -13339,7 +13350,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -13367,7 +13378,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -13395,7 +13406,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -13423,7 +13434,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -13451,7 +13462,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -13479,7 +13490,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -13507,7 +13518,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -13535,7 +13546,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -13563,7 +13574,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -13591,7 +13602,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -13619,7 +13630,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -13647,7 +13658,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -13675,7 +13686,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -13703,7 +13714,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -13731,7 +13742,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -13759,7 +13770,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -13787,7 +13798,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -13815,7 +13826,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -13843,7 +13854,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -13871,7 +13882,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -13899,7 +13910,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -13927,7 +13938,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -13955,7 +13966,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -13983,7 +13994,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14011,7 +14022,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14039,7 +14050,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14067,7 +14078,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14095,7 +14106,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14123,7 +14134,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14151,7 +14162,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -14179,7 +14190,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -14207,7 +14218,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -14235,7 +14246,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -14263,7 +14274,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -14291,7 +14302,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -14319,7 +14330,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -14347,7 +14358,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -14375,7 +14386,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -14403,7 +14414,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -14431,7 +14442,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -14459,7 +14470,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -14487,7 +14498,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -14515,7 +14526,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -14543,7 +14554,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -14571,7 +14582,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -14599,7 +14610,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -14627,7 +14638,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -14655,7 +14666,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -14683,7 +14694,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -14711,7 +14722,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -14739,7 +14750,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -14767,7 +14778,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -14795,7 +14806,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -14823,7 +14834,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -14851,7 +14862,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -14879,7 +14890,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -14907,7 +14918,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -14935,7 +14946,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -14963,7 +14974,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -14991,7 +15002,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15019,7 +15030,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15047,7 +15058,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15075,7 +15086,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15103,7 +15114,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15131,7 +15142,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15159,7 +15170,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -15187,7 +15198,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -15215,7 +15226,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -15243,7 +15254,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -15271,7 +15282,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -15299,7 +15310,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -15327,7 +15338,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -15355,7 +15366,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -15383,7 +15394,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -15411,7 +15422,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -15439,7 +15450,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -15467,7 +15478,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -15495,7 +15506,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -15523,7 +15534,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -15551,7 +15562,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -15579,7 +15590,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -15607,7 +15618,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -15635,7 +15646,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -15663,7 +15674,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -15691,7 +15702,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -15719,7 +15730,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -15747,7 +15758,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -15775,7 +15786,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -15803,7 +15814,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -15831,7 +15842,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -15859,7 +15870,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -15887,7 +15898,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -15915,7 +15926,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -15943,7 +15954,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -15971,7 +15982,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -15999,7 +16010,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16027,7 +16038,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16055,7 +16066,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16083,7 +16094,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16111,7 +16122,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16139,7 +16150,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -16167,7 +16178,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -16195,7 +16206,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -16223,7 +16234,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -16251,7 +16262,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -16279,7 +16290,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -16307,7 +16318,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -16335,7 +16346,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -16363,7 +16374,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -16391,7 +16402,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -16419,7 +16430,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -16447,7 +16458,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -16475,7 +16486,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -16503,7 +16514,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -16531,7 +16542,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -16559,7 +16570,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -16587,7 +16598,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -16615,7 +16626,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -16643,7 +16654,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -16671,7 +16682,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -16699,7 +16710,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -16727,7 +16738,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -16755,7 +16766,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -16783,7 +16794,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -16811,7 +16822,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -16839,7 +16850,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -16867,7 +16878,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -16895,7 +16906,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -16923,7 +16934,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -16951,7 +16962,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -16979,7 +16990,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17007,7 +17018,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17035,7 +17046,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17063,7 +17074,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17091,7 +17102,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17119,7 +17130,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17147,7 +17158,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -17175,7 +17186,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -17203,7 +17214,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -17231,7 +17242,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -17259,7 +17270,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -17287,7 +17298,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -17315,7 +17326,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -17343,7 +17354,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -17371,7 +17382,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -17399,7 +17410,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -17427,7 +17438,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -17455,7 +17466,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -17483,7 +17494,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -17511,7 +17522,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -17539,7 +17550,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -17567,7 +17578,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -17595,7 +17606,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -17623,7 +17634,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -17651,7 +17662,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -17679,7 +17690,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -17707,7 +17718,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -17735,7 +17746,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -17763,7 +17774,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -17791,7 +17802,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -17819,7 +17830,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -17847,7 +17858,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -17875,7 +17886,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -17903,7 +17914,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -17931,7 +17942,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -17959,7 +17970,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -17987,7 +17998,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18015,7 +18026,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18043,7 +18054,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18071,7 +18082,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18099,7 +18110,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18127,7 +18138,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18155,7 +18166,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -18183,7 +18194,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -18211,7 +18222,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -18239,7 +18250,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -18267,7 +18278,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -18295,7 +18306,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -18323,7 +18334,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -18351,7 +18362,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -18379,7 +18390,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -18407,7 +18418,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -18435,7 +18446,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -18463,7 +18474,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -18491,7 +18502,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -18519,7 +18530,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -18547,7 +18558,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -18575,7 +18586,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -18603,7 +18614,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -18631,7 +18642,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -18659,7 +18670,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -18687,7 +18698,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -18715,7 +18726,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -18743,7 +18754,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -18771,7 +18782,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -18799,7 +18810,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -18827,7 +18838,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -18855,7 +18866,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -18883,7 +18894,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -18911,7 +18922,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -18939,7 +18950,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -18967,7 +18978,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -18995,7 +19006,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19023,7 +19034,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19051,7 +19062,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19079,7 +19090,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19107,7 +19118,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19135,7 +19146,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19163,7 +19174,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -19191,7 +19202,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -19219,7 +19230,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -19247,7 +19258,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -19275,7 +19286,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -19303,7 +19314,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -19331,7 +19342,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -19359,7 +19370,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -19387,7 +19398,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -19415,7 +19426,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -19443,7 +19454,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -19471,7 +19482,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -19499,7 +19510,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -19527,7 +19538,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -19555,7 +19566,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -19583,7 +19594,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -19611,7 +19622,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -19639,7 +19650,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -19667,7 +19678,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -19695,7 +19706,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -19723,7 +19734,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -19751,7 +19762,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -19779,7 +19790,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -19807,7 +19818,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -19835,7 +19846,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -19863,7 +19874,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -19891,7 +19902,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -19919,7 +19930,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -19947,7 +19958,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -19975,7 +19986,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20003,7 +20014,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20031,7 +20042,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20059,7 +20070,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20087,7 +20098,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20115,7 +20126,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20143,7 +20154,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -20171,7 +20182,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -20199,7 +20210,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -20227,7 +20238,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -20255,7 +20266,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -20283,7 +20294,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -20311,7 +20322,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -20339,7 +20350,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -20367,7 +20378,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -20395,7 +20406,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -20423,7 +20434,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -20451,7 +20462,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -20479,7 +20490,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -20507,7 +20518,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -20535,7 +20546,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -20563,7 +20574,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -20591,7 +20602,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -20619,7 +20630,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -20647,7 +20658,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -20675,7 +20686,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -20703,7 +20714,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -20731,7 +20742,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -20759,7 +20770,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -20787,7 +20798,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -20815,7 +20826,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -20843,7 +20854,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -20871,7 +20882,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -20899,7 +20910,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -20927,7 +20938,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -20955,7 +20966,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -20983,7 +20994,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21011,7 +21022,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21039,7 +21050,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21067,7 +21078,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21095,7 +21106,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21123,7 +21134,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21151,7 +21162,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -21179,7 +21190,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -21207,7 +21218,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -21235,7 +21246,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -21263,7 +21274,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -21291,7 +21302,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -21319,7 +21330,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -21347,7 +21358,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -21375,7 +21386,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -21403,7 +21414,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -21431,7 +21442,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -21459,7 +21470,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -21487,7 +21498,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -21515,7 +21526,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -21543,7 +21554,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -21571,7 +21582,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -21599,7 +21610,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -21627,7 +21638,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -21655,7 +21666,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -21683,7 +21694,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -21711,7 +21722,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -21739,7 +21750,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -21767,7 +21778,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -21795,7 +21806,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -21823,7 +21834,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -21851,7 +21862,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -21879,7 +21890,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -21907,7 +21918,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -21935,7 +21946,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -21963,7 +21974,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -21991,7 +22002,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22019,7 +22030,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22047,7 +22058,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22075,7 +22086,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22103,7 +22114,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22131,7 +22142,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22159,7 +22170,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -22187,7 +22198,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -22215,7 +22226,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -22243,7 +22254,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -22271,7 +22282,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -22299,7 +22310,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -22327,7 +22338,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -22355,7 +22366,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -22383,7 +22394,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -22411,7 +22422,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -22439,7 +22450,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -22467,7 +22478,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -22495,7 +22506,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -22523,7 +22534,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -22551,7 +22562,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -22579,7 +22590,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -22607,7 +22618,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -22635,7 +22646,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -22663,7 +22674,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -22691,7 +22702,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -22719,7 +22730,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -22747,7 +22758,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -22775,7 +22786,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -22803,7 +22814,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -22831,7 +22842,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -22859,7 +22870,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -22887,7 +22898,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -22915,7 +22926,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -22943,7 +22954,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -22971,7 +22982,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -22999,7 +23010,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23027,7 +23038,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23055,7 +23066,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23083,7 +23094,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23111,7 +23122,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23139,7 +23150,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -23167,7 +23178,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -23195,7 +23206,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -23223,7 +23234,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -23251,7 +23262,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -23279,7 +23290,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -23307,7 +23318,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -23335,7 +23346,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -23363,7 +23374,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -23391,7 +23402,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -23419,7 +23430,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -23447,7 +23458,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -23475,7 +23486,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -23503,7 +23514,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -23531,7 +23542,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -23559,7 +23570,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -23587,7 +23598,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -23615,7 +23626,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -23643,7 +23654,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -23671,7 +23682,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -23699,7 +23710,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -23727,7 +23738,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -23755,7 +23766,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -23783,7 +23794,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -23811,7 +23822,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -23839,7 +23850,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -23867,7 +23878,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -23895,7 +23906,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -23923,7 +23934,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -23951,7 +23962,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -23979,7 +23990,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24007,7 +24018,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24035,7 +24046,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24063,7 +24074,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24091,7 +24102,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24119,7 +24130,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24147,7 +24158,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -24175,7 +24186,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -24203,7 +24214,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -24231,7 +24242,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -24259,7 +24270,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -24287,7 +24298,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -24315,7 +24326,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -24343,7 +24354,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -24371,7 +24382,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -24399,7 +24410,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -24427,7 +24438,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -24455,7 +24466,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -24483,7 +24494,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -24511,7 +24522,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -24539,7 +24550,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -24567,7 +24578,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -24595,7 +24606,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -24623,7 +24634,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -24651,7 +24662,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -24679,7 +24690,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -24707,7 +24718,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -24735,7 +24746,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -24763,7 +24774,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -24791,7 +24802,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -24819,7 +24830,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -24847,7 +24858,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -24875,7 +24886,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -24903,7 +24914,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -24931,7 +24942,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -24959,7 +24970,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -24987,7 +24998,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25015,7 +25026,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25043,7 +25054,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25071,7 +25082,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25099,7 +25110,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25127,7 +25138,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -25155,7 +25166,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -25183,7 +25194,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -25211,7 +25222,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -25239,7 +25250,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -25267,7 +25278,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -25295,7 +25306,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -25323,7 +25334,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -25351,7 +25362,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -25379,7 +25390,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -25407,7 +25418,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -25435,7 +25446,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -25463,7 +25474,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -25491,7 +25502,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -25519,7 +25530,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -25547,7 +25558,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -25575,7 +25586,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -25603,7 +25614,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -25631,7 +25642,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -25659,7 +25670,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -25687,7 +25698,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -25715,7 +25726,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -25743,7 +25754,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -25771,7 +25782,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -25799,7 +25810,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -25827,7 +25838,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -25855,7 +25866,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -25883,7 +25894,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -25911,7 +25922,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -25939,7 +25950,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -25967,7 +25978,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -25995,7 +26006,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26023,7 +26034,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26051,7 +26062,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26079,7 +26090,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -26107,7 +26118,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -26135,7 +26146,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -26163,7 +26174,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -26191,7 +26202,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -26219,7 +26230,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -26247,7 +26258,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -26275,7 +26286,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -26303,7 +26314,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -26331,7 +26342,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -26359,7 +26370,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -26387,7 +26398,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -26415,7 +26426,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -26443,7 +26454,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -26471,7 +26482,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -26499,7 +26510,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -26527,7 +26538,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -26555,7 +26566,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -26583,7 +26594,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -26611,7 +26622,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -26639,7 +26650,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -26667,7 +26678,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -26695,7 +26706,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -26723,7 +26734,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -26751,7 +26762,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -26779,7 +26790,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -26807,7 +26818,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -26835,7 +26846,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -26863,7 +26874,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -26891,7 +26902,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -26919,7 +26930,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -26947,7 +26958,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -26975,7 +26986,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27003,7 +27014,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27031,7 +27042,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27059,7 +27070,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -27087,7 +27098,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -27115,7 +27126,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -27143,7 +27154,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -27171,7 +27182,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -27199,7 +27210,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -27227,7 +27238,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -27255,7 +27266,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -27283,7 +27294,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -27311,7 +27322,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -27339,7 +27350,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -27367,7 +27378,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -27395,7 +27406,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -27423,7 +27434,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -27451,7 +27462,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -27479,7 +27490,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -27507,7 +27518,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -27535,7 +27546,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -27563,7 +27574,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -27591,7 +27602,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -27619,7 +27630,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -27647,7 +27658,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -27675,7 +27686,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -27703,7 +27714,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -27731,7 +27742,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -27759,7 +27770,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -27787,7 +27798,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -27815,7 +27826,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -27843,7 +27854,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -27871,7 +27882,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -27899,7 +27910,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -27927,7 +27938,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -27955,7 +27966,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -27983,7 +27994,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28011,7 +28022,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28039,7 +28050,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -28067,7 +28078,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -28095,7 +28106,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -28123,7 +28134,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -28151,7 +28162,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -28179,7 +28190,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -28207,7 +28218,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -28235,7 +28246,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -28263,7 +28274,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -28291,7 +28302,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -28319,7 +28330,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -28347,7 +28358,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -28375,7 +28386,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -28403,7 +28414,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -28431,7 +28442,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -28459,7 +28470,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -28487,7 +28498,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -28515,7 +28526,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -28543,7 +28554,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -28571,7 +28582,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -28599,7 +28610,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -28627,7 +28638,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -28655,7 +28666,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -28683,7 +28694,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -28711,7 +28722,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -28739,7 +28750,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -28767,7 +28778,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -28795,7 +28806,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -28823,7 +28834,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -28851,7 +28862,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -28879,7 +28890,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -28907,7 +28918,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -28935,7 +28946,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -28963,7 +28974,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -28991,7 +29002,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -29019,7 +29030,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -29047,7 +29058,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -29075,7 +29086,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -29103,7 +29114,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -29131,7 +29142,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -29159,7 +29170,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -29187,7 +29198,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -29215,7 +29226,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -29243,7 +29254,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -29271,7 +29282,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -29299,7 +29310,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -29327,7 +29338,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -29355,7 +29366,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -29383,7 +29394,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -29411,7 +29422,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -29439,7 +29450,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -29467,7 +29478,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -29495,7 +29506,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -29523,7 +29534,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -29551,7 +29562,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -29579,7 +29590,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -29607,7 +29618,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -29635,7 +29646,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -29663,7 +29674,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>

--- a/LR3/table_1_17.xlsx
+++ b/LR3/table_1_17.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1D8658-324A-4C77-98FE-C46B12F177FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{713795EE-6514-47E7-A3A6-2E5F43F36E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
     <t>Площадь, кв.м.</t>
@@ -493,8 +493,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -616,18 +616,18 @@
         <v>44805</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H38" si="1">IF(G3 &lt;= F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="3">
         <v>10</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J38" si="2">H3*I3</f>
+        <f t="shared" ref="J3:J38" si="1">H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" ref="K3:K38" si="3">E3+J3</f>
+        <f t="shared" ref="K3:K38" si="2">E3+J3</f>
         <v>1309.0000000000002</v>
       </c>
       <c r="L3" s="1"/>
@@ -648,14 +648,14 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A38" si="4">1 + A3</f>
+        <f t="shared" ref="A4:A38" si="3">1 + A3</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C38" si="5">C3 - 0.5</f>
+        <f t="shared" ref="C4:C38" si="4">C3 - 0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="3">
@@ -667,15 +667,15 @@
         <v>1299.6500000000001</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F38" si="6">F3</f>
+        <f t="shared" ref="F4:F38" si="5">F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" ref="G4:G38" si="7">G3 + 1</f>
+        <f t="shared" ref="G4:G38" si="6">G3 + 1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H4:H38" si="7">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="3">
@@ -683,11 +683,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <f t="shared" si="3"/>
         <v>1299.6500000000001</v>
       </c>
       <c r="L4" s="1"/>
@@ -708,14 +708,14 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="D5" s="3">
@@ -727,15 +727,15 @@
         <v>1290.3000000000002</v>
       </c>
       <c r="F5" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="6">
+        <v>44807</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="7"/>
-        <v>44807</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="3">
@@ -743,11 +743,11 @@
         <v>10</v>
       </c>
       <c r="J5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" si="3"/>
         <v>1290.3000000000002</v>
       </c>
       <c r="L5" s="1"/>
@@ -768,14 +768,14 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="3">
@@ -787,15 +787,15 @@
         <v>1280.9500000000003</v>
       </c>
       <c r="F6" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="6">
+        <v>44808</v>
+      </c>
+      <c r="H6" s="3">
         <f t="shared" si="7"/>
-        <v>44808</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
@@ -803,11 +803,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="shared" si="3"/>
         <v>1280.9500000000003</v>
       </c>
       <c r="L6" s="1"/>
@@ -828,14 +828,14 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="3">
@@ -847,15 +847,15 @@
         <v>1271.6000000000001</v>
       </c>
       <c r="F7" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="6">
+        <v>44809</v>
+      </c>
+      <c r="H7" s="3">
         <f t="shared" si="7"/>
-        <v>44809</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="3">
@@ -863,11 +863,11 @@
         <v>10</v>
       </c>
       <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <f t="shared" si="3"/>
         <v>1271.6000000000001</v>
       </c>
       <c r="L7" s="1"/>
@@ -888,14 +888,14 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="3">
@@ -907,15 +907,15 @@
         <v>1262.2500000000002</v>
       </c>
       <c r="F8" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="6">
+        <v>44810</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="7"/>
-        <v>44810</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="3">
@@ -923,11 +923,11 @@
         <v>10</v>
       </c>
       <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="3"/>
         <v>1262.2500000000002</v>
       </c>
       <c r="L8" s="1"/>
@@ -948,14 +948,14 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="3">
@@ -967,15 +967,15 @@
         <v>1252.9000000000001</v>
       </c>
       <c r="F9" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="6">
+        <v>44811</v>
+      </c>
+      <c r="H9" s="3">
         <f t="shared" si="7"/>
-        <v>44811</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="3">
@@ -983,11 +983,11 @@
         <v>10</v>
       </c>
       <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="3"/>
         <v>1252.9000000000001</v>
       </c>
       <c r="L9" s="1"/>
@@ -1008,14 +1008,14 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="3">
@@ -1027,15 +1027,15 @@
         <v>1243.5500000000002</v>
       </c>
       <c r="F10" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="6">
+        <v>44812</v>
+      </c>
+      <c r="H10" s="3">
         <f t="shared" si="7"/>
-        <v>44812</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="3">
@@ -1043,11 +1043,11 @@
         <v>10</v>
       </c>
       <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <f t="shared" si="3"/>
         <v>1243.5500000000002</v>
       </c>
       <c r="L10" s="1"/>
@@ -1068,14 +1068,14 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="3">
@@ -1087,15 +1087,15 @@
         <v>1234.2000000000003</v>
       </c>
       <c r="F11" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="6"/>
         <v>44813</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="3">
         <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="3">
@@ -1103,11 +1103,11 @@
         <v>10</v>
       </c>
       <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <f t="shared" si="3"/>
         <v>1234.2000000000003</v>
       </c>
       <c r="L11" s="1"/>
@@ -1128,14 +1128,14 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="3">
@@ -1147,15 +1147,15 @@
         <v>1224.8500000000001</v>
       </c>
       <c r="F12" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="6">
+        <v>44814</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="7"/>
-        <v>44814</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="3">
@@ -1163,11 +1163,11 @@
         <v>10</v>
       </c>
       <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="3">
-        <f t="shared" si="3"/>
         <v>1234.8500000000001</v>
       </c>
       <c r="L12" s="1"/>
@@ -1188,14 +1188,14 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="3">
@@ -1207,15 +1207,15 @@
         <v>1215.5000000000002</v>
       </c>
       <c r="F13" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="6">
+        <v>44815</v>
+      </c>
+      <c r="H13" s="3">
         <f t="shared" si="7"/>
-        <v>44815</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="3">
@@ -1223,11 +1223,11 @@
         <v>10</v>
       </c>
       <c r="J13" s="3">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="K13" s="3">
-        <f t="shared" si="3"/>
         <v>1235.5000000000002</v>
       </c>
       <c r="L13" s="1"/>
@@ -1248,14 +1248,14 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="3">
@@ -1267,15 +1267,15 @@
         <v>1206.1500000000001</v>
       </c>
       <c r="F14" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="6">
+        <v>44816</v>
+      </c>
+      <c r="H14" s="3">
         <f t="shared" si="7"/>
-        <v>44816</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="3">
@@ -1283,11 +1283,11 @@
         <v>10</v>
       </c>
       <c r="J14" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="K14" s="3">
-        <f t="shared" si="3"/>
         <v>1236.1500000000001</v>
       </c>
       <c r="L14" s="1"/>
@@ -1308,14 +1308,14 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="3">
@@ -1327,15 +1327,15 @@
         <v>1196.8000000000002</v>
       </c>
       <c r="F15" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="6">
+        <v>44817</v>
+      </c>
+      <c r="H15" s="3">
         <f t="shared" si="7"/>
-        <v>44817</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="3">
@@ -1343,11 +1343,11 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="3"/>
         <v>1236.8000000000002</v>
       </c>
       <c r="L15" s="1"/>
@@ -1368,14 +1368,14 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="3">
@@ -1387,15 +1387,15 @@
         <v>1187.4500000000003</v>
       </c>
       <c r="F16" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="6">
+        <v>44818</v>
+      </c>
+      <c r="H16" s="3">
         <f t="shared" si="7"/>
-        <v>44818</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="3">
@@ -1403,11 +1403,11 @@
         <v>10</v>
       </c>
       <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="K16" s="3">
-        <f t="shared" si="3"/>
         <v>1237.4500000000003</v>
       </c>
       <c r="L16" s="1"/>
@@ -1428,14 +1428,14 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="3">
@@ -1447,15 +1447,15 @@
         <v>1178.1000000000001</v>
       </c>
       <c r="F17" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="6">
+        <v>44819</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="7"/>
-        <v>44819</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="3">
@@ -1463,11 +1463,11 @@
         <v>10</v>
       </c>
       <c r="J17" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="3"/>
         <v>1238.1000000000001</v>
       </c>
       <c r="L17" s="1"/>
@@ -1488,14 +1488,14 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="3">
@@ -1507,15 +1507,15 @@
         <v>1168.7500000000002</v>
       </c>
       <c r="F18" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="6">
+        <v>44820</v>
+      </c>
+      <c r="H18" s="3">
         <f t="shared" si="7"/>
-        <v>44820</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="3">
@@ -1523,11 +1523,11 @@
         <v>10</v>
       </c>
       <c r="J18" s="3">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="K18" s="3">
-        <f t="shared" si="3"/>
         <v>1238.7500000000002</v>
       </c>
       <c r="L18" s="1"/>
@@ -1548,14 +1548,14 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="3">
@@ -1567,15 +1567,15 @@
         <v>1159.4000000000001</v>
       </c>
       <c r="F19" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="6">
+        <v>44821</v>
+      </c>
+      <c r="H19" s="3">
         <f t="shared" si="7"/>
-        <v>44821</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="3">
@@ -1583,11 +1583,11 @@
         <v>10</v>
       </c>
       <c r="J19" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="K19" s="3">
-        <f t="shared" si="3"/>
         <v>1239.4000000000001</v>
       </c>
       <c r="L19" s="1"/>
@@ -1608,14 +1608,14 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="3">
@@ -1627,15 +1627,15 @@
         <v>1150.0500000000002</v>
       </c>
       <c r="F20" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
+        <v>44822</v>
+      </c>
+      <c r="H20" s="3">
         <f t="shared" si="7"/>
-        <v>44822</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="3">
@@ -1643,11 +1643,11 @@
         <v>10</v>
       </c>
       <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="K20" s="3">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="K20" s="3">
-        <f t="shared" si="3"/>
         <v>1240.0500000000002</v>
       </c>
       <c r="L20" s="1"/>
@@ -1668,14 +1668,14 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="3">
@@ -1687,15 +1687,15 @@
         <v>1140.7000000000003</v>
       </c>
       <c r="F21" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
+        <v>44823</v>
+      </c>
+      <c r="H21" s="3">
         <f t="shared" si="7"/>
-        <v>44823</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="3">
@@ -1703,11 +1703,11 @@
         <v>10</v>
       </c>
       <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="K21" s="3">
-        <f t="shared" si="3"/>
         <v>1240.7000000000003</v>
       </c>
       <c r="L21" s="1"/>
@@ -1728,14 +1728,14 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="3">
@@ -1747,15 +1747,15 @@
         <v>1131.3500000000001</v>
       </c>
       <c r="F22" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
+        <v>44824</v>
+      </c>
+      <c r="H22" s="3">
         <f t="shared" si="7"/>
-        <v>44824</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="3">
@@ -1763,11 +1763,11 @@
         <v>10</v>
       </c>
       <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="K22" s="3">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="K22" s="3">
-        <f t="shared" si="3"/>
         <v>1241.3500000000001</v>
       </c>
       <c r="L22" s="1"/>
@@ -1788,14 +1788,14 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="3">
@@ -1807,15 +1807,15 @@
         <v>1122.0000000000002</v>
       </c>
       <c r="F23" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="6">
+        <v>44825</v>
+      </c>
+      <c r="H23" s="3">
         <f t="shared" si="7"/>
-        <v>44825</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="3">
@@ -1823,11 +1823,11 @@
         <v>10</v>
       </c>
       <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="K23" s="3">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="K23" s="3">
-        <f t="shared" si="3"/>
         <v>1242.0000000000002</v>
       </c>
       <c r="L23" s="1"/>
@@ -1848,14 +1848,14 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="3">
@@ -1867,15 +1867,15 @@
         <v>1112.6500000000001</v>
       </c>
       <c r="F24" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="6">
+        <v>44826</v>
+      </c>
+      <c r="H24" s="3">
         <f t="shared" si="7"/>
-        <v>44826</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="3">
@@ -1883,11 +1883,11 @@
         <v>10</v>
       </c>
       <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="K24" s="3">
         <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="K24" s="3">
-        <f t="shared" si="3"/>
         <v>1242.6500000000001</v>
       </c>
       <c r="L24" s="1"/>
@@ -1908,14 +1908,14 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="3">
@@ -1927,15 +1927,15 @@
         <v>1103.3000000000002</v>
       </c>
       <c r="F25" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="6">
+        <v>44827</v>
+      </c>
+      <c r="H25" s="3">
         <f t="shared" si="7"/>
-        <v>44827</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="3">
@@ -1943,11 +1943,11 @@
         <v>10</v>
       </c>
       <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="K25" s="3">
         <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="K25" s="3">
-        <f t="shared" si="3"/>
         <v>1243.3000000000002</v>
       </c>
       <c r="L25" s="1"/>
@@ -1968,14 +1968,14 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="3">
@@ -1987,15 +1987,15 @@
         <v>1093.9500000000003</v>
       </c>
       <c r="F26" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="6">
+        <v>44828</v>
+      </c>
+      <c r="H26" s="3">
         <f t="shared" si="7"/>
-        <v>44828</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="3">
@@ -2003,11 +2003,11 @@
         <v>10</v>
       </c>
       <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="K26" s="3">
         <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="K26" s="3">
-        <f t="shared" si="3"/>
         <v>1243.9500000000003</v>
       </c>
       <c r="L26" s="1"/>
@@ -2028,14 +2028,14 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="3">
@@ -2047,15 +2047,15 @@
         <v>1084.6000000000001</v>
       </c>
       <c r="F27" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="6">
+        <v>44829</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="7"/>
-        <v>44829</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="3">
@@ -2063,11 +2063,11 @@
         <v>10</v>
       </c>
       <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="K27" s="3">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="K27" s="3">
-        <f t="shared" si="3"/>
         <v>1244.6000000000001</v>
       </c>
       <c r="L27" s="1"/>
@@ -2088,14 +2088,14 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="3">
@@ -2107,15 +2107,15 @@
         <v>1075.2500000000002</v>
       </c>
       <c r="F28" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="6">
+        <v>44830</v>
+      </c>
+      <c r="H28" s="3">
         <f t="shared" si="7"/>
-        <v>44830</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="3">
@@ -2123,11 +2123,11 @@
         <v>10</v>
       </c>
       <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="K28" s="3">
         <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="3"/>
         <v>1245.2500000000002</v>
       </c>
       <c r="L28" s="1"/>
@@ -2148,14 +2148,14 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="3">
@@ -2167,15 +2167,15 @@
         <v>1065.9000000000001</v>
       </c>
       <c r="F29" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="6">
+        <v>44831</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="7"/>
-        <v>44831</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="3">
@@ -2183,11 +2183,11 @@
         <v>10</v>
       </c>
       <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="K29" s="3">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" si="3"/>
         <v>1245.9000000000001</v>
       </c>
       <c r="L29" s="1"/>
@@ -2208,14 +2208,14 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="3">
@@ -2227,15 +2227,15 @@
         <v>1056.5500000000002</v>
       </c>
       <c r="F30" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="6">
+        <v>44832</v>
+      </c>
+      <c r="H30" s="3">
         <f t="shared" si="7"/>
-        <v>44832</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="3">
@@ -2243,11 +2243,11 @@
         <v>10</v>
       </c>
       <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="K30" s="3">
         <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-      <c r="K30" s="3">
-        <f t="shared" si="3"/>
         <v>1246.5500000000002</v>
       </c>
       <c r="L30" s="1"/>
@@ -2268,14 +2268,14 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="3">
@@ -2287,15 +2287,15 @@
         <v>1047.2000000000003</v>
       </c>
       <c r="F31" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="6">
+        <v>44833</v>
+      </c>
+      <c r="H31" s="3">
         <f t="shared" si="7"/>
-        <v>44833</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="3">
@@ -2303,11 +2303,11 @@
         <v>10</v>
       </c>
       <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K31" s="3">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="K31" s="3">
-        <f t="shared" si="3"/>
         <v>1247.2000000000003</v>
       </c>
       <c r="L31" s="1"/>
@@ -2328,14 +2328,14 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="3">
@@ -2347,15 +2347,15 @@
         <v>1037.8500000000001</v>
       </c>
       <c r="F32" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="6">
+        <v>44834</v>
+      </c>
+      <c r="H32" s="3">
         <f t="shared" si="7"/>
-        <v>44834</v>
-      </c>
-      <c r="H32" s="3">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="3">
@@ -2363,11 +2363,11 @@
         <v>10</v>
       </c>
       <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="K32" s="3">
         <f t="shared" si="2"/>
-        <v>210</v>
-      </c>
-      <c r="K32" s="3">
-        <f t="shared" si="3"/>
         <v>1247.8500000000001</v>
       </c>
       <c r="L32" s="1"/>
@@ -2388,14 +2388,14 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="3">
@@ -2407,15 +2407,15 @@
         <v>1028.5000000000002</v>
       </c>
       <c r="F33" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="6">
+        <v>44835</v>
+      </c>
+      <c r="H33" s="3">
         <f t="shared" si="7"/>
-        <v>44835</v>
-      </c>
-      <c r="H33" s="3">
-        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="3">
@@ -2423,11 +2423,11 @@
         <v>10</v>
       </c>
       <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="K33" s="3">
         <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="K33" s="3">
-        <f t="shared" si="3"/>
         <v>1248.5000000000002</v>
       </c>
       <c r="L33" s="1"/>
@@ -2448,14 +2448,14 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="3">
@@ -2467,15 +2467,15 @@
         <v>1019.1500000000002</v>
       </c>
       <c r="F34" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="6">
+        <v>44836</v>
+      </c>
+      <c r="H34" s="3">
         <f t="shared" si="7"/>
-        <v>44836</v>
-      </c>
-      <c r="H34" s="3">
-        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="3">
@@ -2483,11 +2483,11 @@
         <v>10</v>
       </c>
       <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="K34" s="3">
         <f t="shared" si="2"/>
-        <v>230</v>
-      </c>
-      <c r="K34" s="3">
-        <f t="shared" si="3"/>
         <v>1249.1500000000001</v>
       </c>
       <c r="L34" s="1"/>
@@ -2508,14 +2508,14 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="3">
@@ -2527,15 +2527,15 @@
         <v>504.90000000000009</v>
       </c>
       <c r="F35" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="6">
+        <v>44837</v>
+      </c>
+      <c r="H35" s="3">
         <f t="shared" si="7"/>
-        <v>44837</v>
-      </c>
-      <c r="H35" s="3">
-        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="3">
@@ -2543,11 +2543,11 @@
         <v>10</v>
       </c>
       <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="K35" s="3">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="3"/>
         <v>744.90000000000009</v>
       </c>
       <c r="L35" s="1"/>
@@ -2568,14 +2568,14 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
@@ -2587,15 +2587,15 @@
         <v>500.22500000000008</v>
       </c>
       <c r="F36" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="6">
+        <v>44838</v>
+      </c>
+      <c r="H36" s="3">
         <f t="shared" si="7"/>
-        <v>44838</v>
-      </c>
-      <c r="H36" s="3">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="3">
@@ -2603,11 +2603,11 @@
         <v>10</v>
       </c>
       <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="K36" s="3">
         <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="3"/>
         <v>750.22500000000014</v>
       </c>
       <c r="L36" s="1"/>
@@ -2628,14 +2628,14 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="3">
@@ -2647,15 +2647,15 @@
         <v>495.55000000000007</v>
       </c>
       <c r="F37" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="6">
+        <v>44839</v>
+      </c>
+      <c r="H37" s="3">
         <f t="shared" si="7"/>
-        <v>44839</v>
-      </c>
-      <c r="H37" s="3">
-        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="3">
@@ -2663,11 +2663,11 @@
         <v>10</v>
       </c>
       <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="K37" s="3">
         <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="K37" s="3">
-        <f t="shared" si="3"/>
         <v>755.55000000000007</v>
       </c>
       <c r="L37" s="1"/>
@@ -2688,14 +2688,14 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
@@ -2707,15 +2707,15 @@
         <v>490.87500000000006</v>
       </c>
       <c r="F38" s="6">
+        <f t="shared" si="5"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="6">
         <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="6">
+        <v>44840</v>
+      </c>
+      <c r="H38" s="3">
         <f t="shared" si="7"/>
-        <v>44840</v>
-      </c>
-      <c r="H38" s="3">
-        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="3">
@@ -2723,11 +2723,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="K38" s="3">
         <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="K38" s="3">
-        <f t="shared" si="3"/>
         <v>760.875</v>
       </c>
       <c r="L38" s="1"/>

--- a/LR3/table_1_17.xlsx
+++ b/LR3/table_1_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{713795EE-6514-47E7-A3A6-2E5F43F36E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC14F336-FF2E-4CBF-BF70-A3DC4E7FC743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
     <t>Штраф, руб</t>
   </si>
   <si>
-    <t>Итого</t>
+    <t>Итого, руб.</t>
   </si>
   <si>
     <t>Абделазиз</t>
@@ -179,16 +179,16 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Общая сумма</t>
+    <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь</t>
+    <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки</t>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -493,14 +493,14 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -508,7 +508,7 @@
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">

--- a/LR3/table_1_17.xlsx
+++ b/LR3/table_1_17.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89296A-1E6D-4BE4-9775-F74C0CDDD4F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC530426-369C-4427-A9A4-F5729BCBE0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miOVOz+nfj9rSUs/wqYBhP27VaQgQ=="/>
     </ext>
@@ -51,7 +62,10 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб.</t>
+    <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
   </si>
   <si>
     <t>Итого, руб.</t>
@@ -88,6 +102,9 @@
   </si>
   <si>
     <t>Карманов</t>
+  </si>
+  <si>
+    <t>Коканов</t>
   </si>
   <si>
     <t>Мохамед</t>
@@ -150,6 +167,9 @@
     <t>Чепурченко</t>
   </si>
   <si>
+    <t>Шабанов</t>
+  </si>
+  <si>
     <t>Шаймарданова</t>
   </si>
   <si>
@@ -170,21 +190,12 @@
   <si>
     <t>Максимальная сумма, руб.</t>
   </si>
-  <si>
-    <t>Шабанов</t>
-  </si>
-  <si>
-    <t>Коканов</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -242,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +272,9 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,24 +497,25 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13" style="7" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="7" customWidth="1"/>
+    <col min="12" max="16384" width="12.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="3">
         <v>17</v>
       </c>
@@ -530,7 +545,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -559,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -580,12 +595,12 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>70</v>
@@ -635,20 +650,20 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="3">
         <f>A3 + 1</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C38" si="3">C3 - 0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="3">
-        <f>A1 * 1.1</f>
+        <f>D3</f>
         <v>18.700000000000003</v>
       </c>
       <c r="E4" s="3">
@@ -695,20 +710,20 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A38" si="8">A4 + 1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="D5" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" ref="D5:D34" si="9">D4</f>
         <v>18.700000000000003</v>
       </c>
       <c r="E5" s="3">
@@ -755,20 +770,20 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="3">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E6" s="3">
@@ -815,20 +830,20 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="3">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="D7" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E7" s="3">
@@ -875,20 +890,20 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="3">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E8" s="3">
@@ -935,20 +950,20 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="3">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="D9" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E9" s="3">
@@ -995,20 +1010,20 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="3">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="3"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E10" s="3">
@@ -1055,20 +1070,20 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="3">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="D11" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E11" s="3">
@@ -1115,20 +1130,20 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="3">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="3"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E12" s="3">
@@ -1175,20 +1190,20 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="3">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="D13" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E13" s="3">
@@ -1235,20 +1250,20 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="3">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="3"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E14" s="3">
@@ -1295,20 +1310,20 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="3">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="D15" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E15" s="3">
@@ -1355,20 +1370,20 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="3">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="3"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E16" s="3">
@@ -1415,20 +1430,20 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="3">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="D17" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E17" s="3">
@@ -1475,20 +1490,20 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="3">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E18" s="3">
@@ -1535,20 +1550,20 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="3">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="D19" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E19" s="3">
@@ -1595,20 +1610,20 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="3">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E20" s="3">
@@ -1655,20 +1670,20 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="3">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="D21" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E21" s="3">
@@ -1715,20 +1730,20 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="3">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E22" s="3">
@@ -1775,20 +1790,20 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="3">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D23" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E23" s="3">
@@ -1835,20 +1850,20 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="3">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E24" s="3">
@@ -1895,20 +1910,20 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="3">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="D25" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E25" s="3">
@@ -1955,20 +1970,20 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="3">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E26" s="3">
@@ -2015,20 +2030,20 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="3">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="D27" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E27" s="3">
@@ -2075,20 +2090,20 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="3">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E28" s="3">
@@ -2135,20 +2150,20 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="3">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="D29" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E29" s="3">
@@ -2195,20 +2210,20 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="3">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E30" s="3">
@@ -2255,20 +2270,20 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="3">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="D31" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E31" s="3">
@@ -2315,20 +2330,20 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="3">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E32" s="3">
@@ -2375,20 +2390,20 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="3">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="D33" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E33" s="3">
@@ -2435,20 +2450,20 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="3">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="3">
-        <f>A1 * 1.1</f>
+        <f t="shared" si="9"/>
         <v>18.700000000000003</v>
       </c>
       <c r="E34" s="3">
@@ -2495,13 +2510,13 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="3">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" si="3"/>
@@ -2555,13 +2570,13 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="3">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="3"/>
@@ -2615,13 +2630,13 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="3">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="3"/>
@@ -2675,13 +2690,13 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="3">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="3"/>
@@ -2735,7 +2750,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2763,10 +2778,10 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3">
         <f>FLOOR(SUM(K3:K38 ),1)</f>
@@ -2796,10 +2811,10 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
@@ -2829,10 +2844,10 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3">
         <f>MAX(H3:H38)</f>
@@ -2862,10 +2877,10 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C43" s="3">
         <f>MAX(E3:E38)</f>
@@ -2895,7 +2910,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2923,7 +2938,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2951,7 +2966,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2979,7 +2994,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3007,7 +3022,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3035,7 +3050,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3063,7 +3078,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3091,7 +3106,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3119,7 +3134,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3147,7 +3162,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3175,7 +3190,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3203,7 +3218,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3231,7 +3246,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3259,7 +3274,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3287,7 +3302,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3315,7 +3330,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3343,7 +3358,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3371,7 +3386,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3399,7 +3414,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3427,7 +3442,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3455,7 +3470,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3483,7 +3498,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3511,7 +3526,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3539,7 +3554,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3567,7 +3582,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3595,7 +3610,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3623,7 +3638,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3651,7 +3666,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3679,7 +3694,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3707,7 +3722,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3735,7 +3750,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3763,7 +3778,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3791,7 +3806,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3819,7 +3834,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3847,7 +3862,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3875,7 +3890,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3903,7 +3918,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3931,7 +3946,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3959,7 +3974,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3987,7 +4002,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4015,7 +4030,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4043,7 +4058,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4071,7 +4086,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4099,7 +4114,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4127,7 +4142,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4155,7 +4170,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4183,7 +4198,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4211,7 +4226,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4239,7 +4254,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4267,7 +4282,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4295,7 +4310,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4323,7 +4338,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4351,7 +4366,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4379,7 +4394,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4407,7 +4422,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4435,7 +4450,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4463,7 +4478,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4491,7 +4506,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4519,7 +4534,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4547,7 +4562,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4575,7 +4590,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4603,7 +4618,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4631,7 +4646,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4659,7 +4674,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4687,7 +4702,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4715,7 +4730,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4743,7 +4758,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4771,7 +4786,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4799,7 +4814,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4827,7 +4842,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4855,7 +4870,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4883,7 +4898,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4911,7 +4926,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4939,7 +4954,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4967,7 +4982,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -4995,7 +5010,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5023,7 +5038,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5051,7 +5066,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5079,7 +5094,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5107,7 +5122,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5135,7 +5150,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5163,7 +5178,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5191,7 +5206,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5219,7 +5234,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5247,7 +5262,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5275,7 +5290,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5303,7 +5318,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5331,7 +5346,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5359,7 +5374,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5387,7 +5402,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5415,7 +5430,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5443,7 +5458,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5471,7 +5486,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5499,7 +5514,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5527,7 +5542,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5555,7 +5570,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5583,7 +5598,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5611,7 +5626,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5639,7 +5654,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5667,7 +5682,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5695,7 +5710,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5723,7 +5738,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5751,7 +5766,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5779,7 +5794,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5807,7 +5822,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5835,7 +5850,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5863,7 +5878,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5891,7 +5906,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5919,7 +5934,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5947,7 +5962,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5975,7 +5990,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6003,7 +6018,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6031,7 +6046,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6059,7 +6074,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6087,7 +6102,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6115,7 +6130,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6143,7 +6158,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6171,7 +6186,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6199,7 +6214,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6227,7 +6242,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6255,7 +6270,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6283,7 +6298,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6311,7 +6326,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6339,7 +6354,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6367,7 +6382,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6395,7 +6410,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6423,7 +6438,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6451,7 +6466,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6479,7 +6494,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6507,7 +6522,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6535,7 +6550,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6563,7 +6578,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6591,7 +6606,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6619,7 +6634,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6647,7 +6662,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6675,7 +6690,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6703,7 +6718,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6731,7 +6746,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6759,7 +6774,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6787,7 +6802,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6815,7 +6830,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6843,7 +6858,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6871,7 +6886,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6899,7 +6914,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6927,7 +6942,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6955,7 +6970,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6983,7 +6998,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7011,7 +7026,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7039,7 +7054,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7067,7 +7082,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7095,7 +7110,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7123,7 +7138,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7151,7 +7166,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7179,7 +7194,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7207,7 +7222,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7235,7 +7250,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7263,7 +7278,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7291,7 +7306,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7319,7 +7334,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7347,7 +7362,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7375,7 +7390,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7403,7 +7418,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7431,7 +7446,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7459,7 +7474,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7487,7 +7502,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7515,7 +7530,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7543,7 +7558,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7571,7 +7586,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7599,7 +7614,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7627,7 +7642,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7655,7 +7670,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7683,7 +7698,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7711,7 +7726,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7739,7 +7754,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7767,7 +7782,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7795,7 +7810,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7823,7 +7838,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7851,7 +7866,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7879,7 +7894,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7907,7 +7922,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7935,7 +7950,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7963,7 +7978,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -7991,7 +8006,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8019,7 +8034,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8047,7 +8062,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8075,7 +8090,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8103,7 +8118,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8131,7 +8146,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8159,7 +8174,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8187,7 +8202,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8215,7 +8230,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8243,7 +8258,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8271,7 +8286,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8299,7 +8314,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8327,7 +8342,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8355,7 +8370,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8383,7 +8398,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8411,7 +8426,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8439,7 +8454,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8467,7 +8482,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8495,7 +8510,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8523,7 +8538,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8551,7 +8566,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8579,7 +8594,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8607,7 +8622,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8635,7 +8650,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8663,7 +8678,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8691,7 +8706,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8719,7 +8734,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8747,7 +8762,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8775,7 +8790,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8803,7 +8818,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8831,7 +8846,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8859,7 +8874,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8887,7 +8902,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8915,7 +8930,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8943,7 +8958,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8971,7 +8986,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8999,7 +9014,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9027,7 +9042,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9055,7 +9070,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9083,7 +9098,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9111,7 +9126,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9139,7 +9154,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9167,7 +9182,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9195,7 +9210,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9223,7 +9238,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9251,7 +9266,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9279,7 +9294,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9307,7 +9322,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9335,7 +9350,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9363,7 +9378,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9391,7 +9406,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -9419,7 +9434,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -9447,7 +9462,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -9475,7 +9490,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -9503,7 +9518,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -9531,7 +9546,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9559,7 +9574,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9587,7 +9602,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9615,7 +9630,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9643,7 +9658,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9671,7 +9686,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -9699,7 +9714,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -9727,7 +9742,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -9755,7 +9770,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -9783,7 +9798,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -9811,7 +9826,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -9839,7 +9854,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -9867,7 +9882,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -9895,7 +9910,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -9923,7 +9938,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -9951,7 +9966,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -9979,7 +9994,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10007,7 +10022,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10035,7 +10050,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10063,7 +10078,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10091,7 +10106,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10119,7 +10134,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10147,7 +10162,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10175,7 +10190,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10203,7 +10218,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10231,7 +10246,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10259,7 +10274,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -10287,7 +10302,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -10315,7 +10330,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -10343,7 +10358,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -10371,7 +10386,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -10399,7 +10414,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -10427,7 +10442,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -10455,7 +10470,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -10483,7 +10498,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -10511,7 +10526,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -10539,7 +10554,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -10567,7 +10582,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -10595,7 +10610,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -10623,7 +10638,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -10651,7 +10666,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -10679,7 +10694,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -10707,7 +10722,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -10735,7 +10750,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -10763,7 +10778,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -10791,7 +10806,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -10819,7 +10834,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -10847,7 +10862,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -10875,7 +10890,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -10903,7 +10918,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -10931,7 +10946,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -10959,7 +10974,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -10987,7 +11002,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11015,7 +11030,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11043,7 +11058,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11071,7 +11086,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11099,7 +11114,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11127,7 +11142,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11155,7 +11170,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11183,7 +11198,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -11211,7 +11226,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -11239,7 +11254,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -11267,7 +11282,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -11295,7 +11310,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -11323,7 +11338,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -11351,7 +11366,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -11379,7 +11394,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -11407,7 +11422,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -11435,7 +11450,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -11463,7 +11478,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -11491,7 +11506,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -11519,7 +11534,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -11547,7 +11562,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -11575,7 +11590,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -11603,7 +11618,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -11631,7 +11646,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -11659,7 +11674,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -11687,7 +11702,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -11715,7 +11730,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -11743,7 +11758,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -11771,7 +11786,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -11799,7 +11814,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -11827,7 +11842,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -11855,7 +11870,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -11883,7 +11898,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -11911,7 +11926,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -11939,7 +11954,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -11967,7 +11982,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -11995,7 +12010,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12023,7 +12038,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12051,7 +12066,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12079,7 +12094,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12107,7 +12122,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12135,7 +12150,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12163,7 +12178,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -12191,7 +12206,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -12219,7 +12234,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -12247,7 +12262,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -12275,7 +12290,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -12303,7 +12318,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -12331,7 +12346,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -12359,7 +12374,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -12387,7 +12402,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -12415,7 +12430,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -12443,7 +12458,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -12471,7 +12486,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -12499,7 +12514,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -12527,7 +12542,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -12555,7 +12570,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -12583,7 +12598,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -12611,7 +12626,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -12639,7 +12654,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -12667,7 +12682,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -12695,7 +12710,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -12723,7 +12738,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -12751,7 +12766,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -12779,7 +12794,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -12807,7 +12822,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -12835,7 +12850,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -12863,7 +12878,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -12891,7 +12906,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -12919,7 +12934,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -12947,7 +12962,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -12975,7 +12990,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13003,7 +13018,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13031,7 +13046,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13059,7 +13074,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13087,7 +13102,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13115,7 +13130,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13143,7 +13158,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -13171,7 +13186,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -13199,7 +13214,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -13227,7 +13242,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -13255,7 +13270,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -13283,7 +13298,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -13311,7 +13326,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -13339,7 +13354,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -13367,7 +13382,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -13395,7 +13410,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -13423,7 +13438,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -13451,7 +13466,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -13479,7 +13494,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -13507,7 +13522,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -13535,7 +13550,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -13563,7 +13578,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -13591,7 +13606,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -13619,7 +13634,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -13647,7 +13662,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -13675,7 +13690,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -13703,7 +13718,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -13731,7 +13746,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -13759,7 +13774,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -13787,7 +13802,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -13815,7 +13830,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -13843,7 +13858,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -13871,7 +13886,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -13899,7 +13914,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -13927,7 +13942,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -13955,7 +13970,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -13983,7 +13998,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14011,7 +14026,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14039,7 +14054,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14067,7 +14082,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14095,7 +14110,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14123,7 +14138,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14151,7 +14166,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -14179,7 +14194,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -14207,7 +14222,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -14235,7 +14250,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -14263,7 +14278,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -14291,7 +14306,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -14319,7 +14334,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -14347,7 +14362,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -14375,7 +14390,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -14403,7 +14418,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -14431,7 +14446,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -14459,7 +14474,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -14487,7 +14502,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -14515,7 +14530,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -14543,7 +14558,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -14571,7 +14586,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -14599,7 +14614,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -14627,7 +14642,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -14655,7 +14670,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -14683,7 +14698,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -14711,7 +14726,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -14739,7 +14754,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -14767,7 +14782,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -14795,7 +14810,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -14823,7 +14838,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -14851,7 +14866,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -14879,7 +14894,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -14907,7 +14922,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -14935,7 +14950,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -14963,7 +14978,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -14991,7 +15006,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15019,7 +15034,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15047,7 +15062,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15075,7 +15090,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15103,7 +15118,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15131,7 +15146,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15159,7 +15174,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -15187,7 +15202,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -15215,7 +15230,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -15243,7 +15258,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -15271,7 +15286,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -15299,7 +15314,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -15327,7 +15342,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -15355,7 +15370,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -15383,7 +15398,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -15411,7 +15426,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -15439,7 +15454,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -15467,7 +15482,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -15495,7 +15510,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -15523,7 +15538,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -15551,7 +15566,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -15579,7 +15594,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -15607,7 +15622,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -15635,7 +15650,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -15663,7 +15678,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -15691,7 +15706,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -15719,7 +15734,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -15747,7 +15762,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -15775,7 +15790,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -15803,7 +15818,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -15831,7 +15846,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -15859,7 +15874,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -15887,7 +15902,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -15915,7 +15930,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -15943,7 +15958,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -15971,7 +15986,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -15999,7 +16014,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16027,7 +16042,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16055,7 +16070,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16083,7 +16098,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16111,7 +16126,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16139,7 +16154,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -16167,7 +16182,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -16195,7 +16210,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -16223,7 +16238,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -16251,7 +16266,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -16279,7 +16294,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -16307,7 +16322,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -16335,7 +16350,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -16363,7 +16378,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -16391,7 +16406,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -16419,7 +16434,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -16447,7 +16462,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -16475,7 +16490,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -16503,7 +16518,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -16531,7 +16546,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -16559,7 +16574,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -16587,7 +16602,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -16615,7 +16630,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -16643,7 +16658,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -16671,7 +16686,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -16699,7 +16714,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -16727,7 +16742,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -16755,7 +16770,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -16783,7 +16798,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -16811,7 +16826,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -16839,7 +16854,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -16867,7 +16882,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -16895,7 +16910,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -16923,7 +16938,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -16951,7 +16966,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -16979,7 +16994,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17007,7 +17022,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17035,7 +17050,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17063,7 +17078,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17091,7 +17106,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17119,7 +17134,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17147,7 +17162,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -17175,7 +17190,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -17203,7 +17218,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -17231,7 +17246,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -17259,7 +17274,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -17287,7 +17302,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -17315,7 +17330,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -17343,7 +17358,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -17371,7 +17386,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -17399,7 +17414,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -17427,7 +17442,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -17455,7 +17470,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -17483,7 +17498,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -17511,7 +17526,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -17539,7 +17554,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -17567,7 +17582,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -17595,7 +17610,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -17623,7 +17638,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -17651,7 +17666,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -17679,7 +17694,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -17707,7 +17722,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -17735,7 +17750,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -17763,7 +17778,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -17791,7 +17806,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -17819,7 +17834,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -17847,7 +17862,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -17875,7 +17890,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -17903,7 +17918,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -17931,7 +17946,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -17959,7 +17974,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -17987,7 +18002,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18015,7 +18030,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18043,7 +18058,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18071,7 +18086,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18099,7 +18114,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18127,7 +18142,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18155,7 +18170,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -18183,7 +18198,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -18211,7 +18226,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -18239,7 +18254,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -18267,7 +18282,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -18295,7 +18310,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -18323,7 +18338,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -18351,7 +18366,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -18379,7 +18394,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -18407,7 +18422,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -18435,7 +18450,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -18463,7 +18478,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -18491,7 +18506,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -18519,7 +18534,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -18547,7 +18562,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -18575,7 +18590,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -18603,7 +18618,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -18631,7 +18646,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -18659,7 +18674,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -18687,7 +18702,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -18715,7 +18730,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -18743,7 +18758,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -18771,7 +18786,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -18799,7 +18814,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -18827,7 +18842,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -18855,7 +18870,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -18883,7 +18898,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -18911,7 +18926,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -18939,7 +18954,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -18967,7 +18982,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -18995,7 +19010,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19023,7 +19038,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19051,7 +19066,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19079,7 +19094,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19107,7 +19122,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19135,7 +19150,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19163,7 +19178,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -19191,7 +19206,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -19219,7 +19234,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -19247,7 +19262,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -19275,7 +19290,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -19303,7 +19318,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -19331,7 +19346,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -19359,7 +19374,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -19387,7 +19402,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -19415,7 +19430,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -19443,7 +19458,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -19471,7 +19486,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -19499,7 +19514,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -19527,7 +19542,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -19555,7 +19570,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -19583,7 +19598,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -19611,7 +19626,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -19639,7 +19654,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -19667,7 +19682,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -19695,7 +19710,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -19723,7 +19738,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -19751,7 +19766,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -19779,7 +19794,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -19807,7 +19822,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -19835,7 +19850,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -19863,7 +19878,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -19891,7 +19906,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -19919,7 +19934,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -19947,7 +19962,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -19975,7 +19990,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20003,7 +20018,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20031,7 +20046,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20059,7 +20074,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20087,7 +20102,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20115,7 +20130,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20143,7 +20158,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -20171,7 +20186,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -20199,7 +20214,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -20227,7 +20242,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -20255,7 +20270,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -20283,7 +20298,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -20311,7 +20326,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -20339,7 +20354,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -20367,7 +20382,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -20395,7 +20410,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -20423,7 +20438,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -20451,7 +20466,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -20479,7 +20494,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -20507,7 +20522,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -20535,7 +20550,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -20563,7 +20578,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -20591,7 +20606,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -20619,7 +20634,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -20647,7 +20662,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -20675,7 +20690,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -20703,7 +20718,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -20731,7 +20746,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -20759,7 +20774,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -20787,7 +20802,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -20815,7 +20830,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -20843,7 +20858,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -20871,7 +20886,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -20899,7 +20914,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -20927,7 +20942,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -20955,7 +20970,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -20983,7 +20998,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21011,7 +21026,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21039,7 +21054,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21067,7 +21082,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21095,7 +21110,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21123,7 +21138,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21151,7 +21166,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -21179,7 +21194,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -21207,7 +21222,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -21235,7 +21250,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -21263,7 +21278,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -21291,7 +21306,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -21319,7 +21334,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -21347,7 +21362,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -21375,7 +21390,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -21403,7 +21418,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -21431,7 +21446,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -21459,7 +21474,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -21487,7 +21502,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -21515,7 +21530,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -21543,7 +21558,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -21571,7 +21586,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -21599,7 +21614,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -21627,7 +21642,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -21655,7 +21670,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -21683,7 +21698,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -21711,7 +21726,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -21739,7 +21754,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -21767,7 +21782,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -21795,7 +21810,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -21823,7 +21838,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -21851,7 +21866,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -21879,7 +21894,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -21907,7 +21922,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -21935,7 +21950,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -21963,7 +21978,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -21991,7 +22006,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22019,7 +22034,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22047,7 +22062,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22075,7 +22090,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22103,7 +22118,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22131,7 +22146,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22159,7 +22174,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -22187,7 +22202,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -22215,7 +22230,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -22243,7 +22258,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -22271,7 +22286,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -22299,7 +22314,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -22327,7 +22342,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -22355,7 +22370,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -22383,7 +22398,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -22411,7 +22426,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -22439,7 +22454,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -22467,7 +22482,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -22495,7 +22510,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -22523,7 +22538,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -22551,7 +22566,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -22579,7 +22594,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -22607,7 +22622,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -22635,7 +22650,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -22663,7 +22678,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -22691,7 +22706,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -22719,7 +22734,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -22747,7 +22762,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -22775,7 +22790,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -22803,7 +22818,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -22831,7 +22846,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -22859,7 +22874,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -22887,7 +22902,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -22915,7 +22930,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -22943,7 +22958,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -22971,7 +22986,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -22999,7 +23014,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23027,7 +23042,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23055,7 +23070,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23083,7 +23098,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23111,7 +23126,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23139,7 +23154,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -23167,7 +23182,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -23195,7 +23210,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -23223,7 +23238,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -23251,7 +23266,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -23279,7 +23294,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -23307,7 +23322,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -23335,7 +23350,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -23363,7 +23378,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -23391,7 +23406,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -23419,7 +23434,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -23447,7 +23462,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -23475,7 +23490,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -23503,7 +23518,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -23531,7 +23546,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -23559,7 +23574,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -23587,7 +23602,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -23615,7 +23630,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -23643,7 +23658,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -23671,7 +23686,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -23699,7 +23714,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -23727,7 +23742,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -23755,7 +23770,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -23783,7 +23798,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -23811,7 +23826,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -23839,7 +23854,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -23867,7 +23882,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -23895,7 +23910,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -23923,7 +23938,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -23951,7 +23966,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -23979,7 +23994,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24007,7 +24022,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24035,7 +24050,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24063,7 +24078,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24091,7 +24106,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24119,7 +24134,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24147,7 +24162,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -24175,7 +24190,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -24203,7 +24218,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -24231,7 +24246,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -24259,7 +24274,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -24287,7 +24302,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -24315,7 +24330,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -24343,7 +24358,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -24371,7 +24386,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -24399,7 +24414,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -24427,7 +24442,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -24455,7 +24470,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -24483,7 +24498,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -24511,7 +24526,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -24539,7 +24554,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -24567,7 +24582,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -24595,7 +24610,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -24623,7 +24638,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -24651,7 +24666,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -24679,7 +24694,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -24707,7 +24722,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -24735,7 +24750,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -24763,7 +24778,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -24791,7 +24806,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -24819,7 +24834,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -24847,7 +24862,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -24875,7 +24890,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -24903,7 +24918,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -24931,7 +24946,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -24959,7 +24974,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -24987,7 +25002,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25015,7 +25030,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25043,7 +25058,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25071,7 +25086,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25099,7 +25114,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25127,7 +25142,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -25155,7 +25170,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -25183,7 +25198,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -25211,7 +25226,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -25239,7 +25254,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -25267,7 +25282,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -25295,7 +25310,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -25323,7 +25338,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -25351,7 +25366,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -25379,7 +25394,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -25407,7 +25422,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -25435,7 +25450,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -25463,7 +25478,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -25491,7 +25506,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -25519,7 +25534,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -25547,7 +25562,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -25575,7 +25590,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -25603,7 +25618,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -25631,7 +25646,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -25659,7 +25674,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -25687,7 +25702,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -25715,7 +25730,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -25743,7 +25758,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -25771,7 +25786,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -25799,7 +25814,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -25827,7 +25842,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -25855,7 +25870,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -25883,7 +25898,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -25911,7 +25926,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -25939,7 +25954,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -25967,7 +25982,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -25995,7 +26010,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26023,7 +26038,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26051,7 +26066,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26079,7 +26094,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -26107,7 +26122,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -26135,7 +26150,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -26163,7 +26178,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -26191,7 +26206,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -26219,7 +26234,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -26247,7 +26262,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -26275,7 +26290,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -26303,7 +26318,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -26331,7 +26346,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -26359,7 +26374,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -26387,7 +26402,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -26415,7 +26430,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -26443,7 +26458,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -26471,7 +26486,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -26499,7 +26514,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -26527,7 +26542,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -26555,7 +26570,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -26583,7 +26598,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -26611,7 +26626,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -26639,7 +26654,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -26667,7 +26682,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -26695,7 +26710,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -26723,7 +26738,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -26751,7 +26766,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -26779,7 +26794,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -26807,7 +26822,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -26835,7 +26850,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -26863,7 +26878,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -26891,7 +26906,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -26919,7 +26934,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -26947,7 +26962,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -26975,7 +26990,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27003,7 +27018,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27031,7 +27046,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27059,7 +27074,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -27087,7 +27102,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -27115,7 +27130,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -27143,7 +27158,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -27171,7 +27186,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -27199,7 +27214,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -27227,7 +27242,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -27255,7 +27270,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -27283,7 +27298,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -27311,7 +27326,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -27339,7 +27354,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -27367,7 +27382,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -27395,7 +27410,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -27423,7 +27438,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -27451,7 +27466,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -27479,7 +27494,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -27507,7 +27522,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -27535,7 +27550,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -27563,7 +27578,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -27591,7 +27606,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -27619,7 +27634,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -27647,7 +27662,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -27675,7 +27690,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -27703,7 +27718,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -27731,7 +27746,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -27759,7 +27774,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -27787,7 +27802,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -27815,7 +27830,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -27843,7 +27858,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -27871,7 +27886,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -27899,7 +27914,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -27927,7 +27942,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -27955,7 +27970,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -27983,7 +27998,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28011,7 +28026,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28039,7 +28054,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -28067,7 +28082,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -28095,7 +28110,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -28123,7 +28138,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -28151,7 +28166,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -28179,7 +28194,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -28207,7 +28222,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -28235,7 +28250,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -28263,7 +28278,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -28291,7 +28306,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -28319,7 +28334,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -28347,7 +28362,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -28375,7 +28390,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -28403,7 +28418,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -28431,7 +28446,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -28459,7 +28474,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -28487,7 +28502,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -28515,7 +28530,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -28543,7 +28558,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -28571,7 +28586,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -28599,7 +28614,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -28627,7 +28642,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -28655,7 +28670,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -28683,7 +28698,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -28711,7 +28726,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -28739,7 +28754,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -28767,7 +28782,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -28795,7 +28810,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -28823,7 +28838,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -28851,7 +28866,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -28879,7 +28894,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -28907,7 +28922,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -28935,7 +28950,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -28963,7 +28978,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -28991,7 +29006,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -29019,7 +29034,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -29047,7 +29062,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -29075,7 +29090,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -29103,7 +29118,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -29131,7 +29146,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -29159,7 +29174,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -29187,7 +29202,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -29215,7 +29230,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -29243,7 +29258,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -29271,7 +29286,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -29299,7 +29314,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -29327,7 +29342,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -29355,7 +29370,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -29383,7 +29398,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -29411,7 +29426,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -29439,7 +29454,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -29467,7 +29482,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -29495,7 +29510,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -29523,7 +29538,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -29551,7 +29566,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -29579,7 +29594,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -29607,7 +29622,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -29635,7 +29650,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -29663,7 +29678,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>

--- a/LR3/table_1_17.xlsx
+++ b/LR3/table_1_17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC530426-369C-4427-A9A4-F5729BCBE0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{870649E5-3ECF-42BC-85A1-F11F16701928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,8 +496,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -2523,7 +2523,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="3">
-        <f>A1*1.1 / 2</f>
+        <f>D3 / 2</f>
         <v>9.3500000000000014</v>
       </c>
       <c r="E35" s="3">
@@ -2583,7 +2583,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="3">
-        <f>A1*1.1 / 2</f>
+        <f t="shared" ref="D36:D38" si="10">D4 / 2</f>
         <v>9.3500000000000014</v>
       </c>
       <c r="E36" s="3">
@@ -2643,7 +2643,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="3">
-        <f>A1*1.1 / 2</f>
+        <f t="shared" si="10"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="E37" s="3">
@@ -2703,7 +2703,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="3">
-        <f>A1*1.1 / 2</f>
+        <f t="shared" si="10"/>
         <v>9.3500000000000014</v>
       </c>
       <c r="E38" s="3">

--- a/LR3/table_1_17.xlsx
+++ b/LR3/table_1_17.xlsx
@@ -1,33 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870649E5-3ECF-42BC-85A1-F11F16701928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BDFA7A-B8F7-411C-9ECE-73FDB3C49F44}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12990" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miOVOz+nfj9rSUs/wqYBhP27VaQgQ=="/>
     </ext>
@@ -60,9 +49,6 @@
   </si>
   <si>
     <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
   </si>
   <si>
     <t>Штраф, руб.</t>
@@ -190,12 +176,15 @@
   <si>
     <t>Максимальная сумма, руб.</t>
   </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -496,11 +485,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="7" customWidth="1"/>
     <col min="2" max="2" width="38" style="7" customWidth="1"/>
@@ -515,7 +504,7 @@
     <col min="12" max="16384" width="12.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
         <v>17</v>
       </c>
@@ -545,7 +534,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -571,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -595,12 +584,12 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>70</v>
@@ -650,13 +639,13 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <f>A3 + 1</f>
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C38" si="3">C3 - 0.5</f>
@@ -710,13 +699,13 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A38" si="8">A4 + 1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="3"/>
@@ -770,13 +759,13 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="3"/>
@@ -830,13 +819,13 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="3"/>
@@ -890,13 +879,13 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="3"/>
@@ -950,13 +939,13 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="3"/>
@@ -1010,13 +999,13 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="3"/>
@@ -1070,13 +1059,13 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="3"/>
@@ -1130,13 +1119,13 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="3"/>
@@ -1190,13 +1179,13 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="3"/>
@@ -1250,13 +1239,13 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="3"/>
@@ -1310,13 +1299,13 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="3"/>
@@ -1370,13 +1359,13 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="3"/>
@@ -1430,13 +1419,13 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="3"/>
@@ -1490,13 +1479,13 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="3"/>
@@ -1550,13 +1539,13 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="3"/>
@@ -1610,13 +1599,13 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="3"/>
@@ -1670,13 +1659,13 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="3"/>
@@ -1730,13 +1719,13 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="3"/>
@@ -1790,13 +1779,13 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="3"/>
@@ -1850,13 +1839,13 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="3"/>
@@ -1910,13 +1899,13 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="3"/>
@@ -1970,13 +1959,13 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="3"/>
@@ -2030,13 +2019,13 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="3"/>
@@ -2090,13 +2079,13 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="3"/>
@@ -2150,13 +2139,13 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="3"/>
@@ -2210,13 +2199,13 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="3"/>
@@ -2270,13 +2259,13 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="3"/>
@@ -2330,13 +2319,13 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="3"/>
@@ -2390,13 +2379,13 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="3"/>
@@ -2450,13 +2439,13 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3">
         <f t="shared" si="3"/>
@@ -2510,13 +2499,13 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="3">
         <f t="shared" si="3"/>
@@ -2570,13 +2559,13 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3">
         <f t="shared" si="3"/>
@@ -2630,13 +2619,13 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3">
         <f t="shared" si="3"/>
@@ -2690,13 +2679,13 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="3"/>
@@ -2750,7 +2739,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2778,10 +2767,10 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3">
         <f>FLOOR(SUM(K3:K38 ),1)</f>
@@ -2811,10 +2800,10 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="3">
         <f>AVERAGE(C3:C38)</f>
@@ -2844,10 +2833,10 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="3">
         <f>MAX(H3:H38)</f>
@@ -2877,10 +2866,10 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="3">
         <f>MAX(E3:E38)</f>
@@ -2910,7 +2899,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2938,7 +2927,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2966,7 +2955,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2994,7 +2983,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3022,7 +3011,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3050,7 +3039,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3078,7 +3067,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3106,7 +3095,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3134,7 +3123,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3162,7 +3151,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3190,7 +3179,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3218,7 +3207,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3246,7 +3235,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3274,7 +3263,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3302,7 +3291,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3330,7 +3319,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3358,7 +3347,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3386,7 +3375,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3414,7 +3403,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3442,7 +3431,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3470,7 +3459,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3498,7 +3487,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3526,7 +3515,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3554,7 +3543,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3582,7 +3571,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3610,7 +3599,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3638,7 +3627,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3666,7 +3655,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3694,7 +3683,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3722,7 +3711,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3750,7 +3739,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3778,7 +3767,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3806,7 +3795,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3834,7 +3823,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3862,7 +3851,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3890,7 +3879,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3918,7 +3907,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3946,7 +3935,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3974,7 +3963,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4002,7 +3991,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4030,7 +4019,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4058,7 +4047,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4086,7 +4075,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4114,7 +4103,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4142,7 +4131,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4170,7 +4159,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4198,7 +4187,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4226,7 +4215,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4254,7 +4243,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4282,7 +4271,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4310,7 +4299,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4338,7 +4327,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4366,7 +4355,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4394,7 +4383,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4422,7 +4411,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4450,7 +4439,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4478,7 +4467,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4506,7 +4495,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -4534,7 +4523,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -4562,7 +4551,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -4590,7 +4579,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -4618,7 +4607,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -4646,7 +4635,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -4674,7 +4663,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -4702,7 +4691,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -4730,7 +4719,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -4758,7 +4747,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -4786,7 +4775,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -4814,7 +4803,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -4842,7 +4831,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -4870,7 +4859,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -4898,7 +4887,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -4926,7 +4915,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -4954,7 +4943,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -4982,7 +4971,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -5010,7 +4999,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -5038,7 +5027,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -5066,7 +5055,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -5094,7 +5083,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -5122,7 +5111,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -5150,7 +5139,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -5178,7 +5167,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -5206,7 +5195,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -5234,7 +5223,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -5262,7 +5251,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5290,7 +5279,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -5318,7 +5307,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -5346,7 +5335,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -5374,7 +5363,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -5402,7 +5391,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -5430,7 +5419,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -5458,7 +5447,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -5486,7 +5475,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -5514,7 +5503,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -5542,7 +5531,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -5570,7 +5559,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -5598,7 +5587,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -5626,7 +5615,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -5654,7 +5643,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -5682,7 +5671,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -5710,7 +5699,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -5738,7 +5727,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -5766,7 +5755,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -5794,7 +5783,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -5822,7 +5811,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -5850,7 +5839,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5878,7 +5867,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -5906,7 +5895,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -5934,7 +5923,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -5962,7 +5951,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -5990,7 +5979,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6018,7 +6007,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6046,7 +6035,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6074,7 +6063,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6102,7 +6091,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6130,7 +6119,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6158,7 +6147,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6186,7 +6175,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6214,7 +6203,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6242,7 +6231,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6270,7 +6259,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6298,7 +6287,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6326,7 +6315,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6354,7 +6343,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6382,7 +6371,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6410,7 +6399,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6438,7 +6427,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -6466,7 +6455,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -6494,7 +6483,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -6522,7 +6511,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -6550,7 +6539,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -6578,7 +6567,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -6606,7 +6595,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -6634,7 +6623,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -6662,7 +6651,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -6690,7 +6679,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -6718,7 +6707,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -6746,7 +6735,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -6774,7 +6763,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -6802,7 +6791,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -6830,7 +6819,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -6858,7 +6847,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -6886,7 +6875,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -6914,7 +6903,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -6942,7 +6931,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -6970,7 +6959,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -6998,7 +6987,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7026,7 +7015,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7054,7 +7043,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7082,7 +7071,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7110,7 +7099,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7138,7 +7127,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7166,7 +7155,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7194,7 +7183,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7222,7 +7211,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7250,7 +7239,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7278,7 +7267,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7306,7 +7295,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7334,7 +7323,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7362,7 +7351,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7390,7 +7379,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7418,7 +7407,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7446,7 +7435,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7474,7 +7463,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7502,7 +7491,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7530,7 +7519,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7558,7 +7547,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7586,7 +7575,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7614,7 +7603,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7642,7 +7631,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7670,7 +7659,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7698,7 +7687,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -7726,7 +7715,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -7754,7 +7743,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -7782,7 +7771,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -7810,7 +7799,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -7838,7 +7827,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -7866,7 +7855,7 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -7894,7 +7883,7 @@
       <c r="Y221" s="1"/>
       <c r="Z221" s="1"/>
     </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -7922,7 +7911,7 @@
       <c r="Y222" s="1"/>
       <c r="Z222" s="1"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -7950,7 +7939,7 @@
       <c r="Y223" s="1"/>
       <c r="Z223" s="1"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -7978,7 +7967,7 @@
       <c r="Y224" s="1"/>
       <c r="Z224" s="1"/>
     </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8006,7 +7995,7 @@
       <c r="Y225" s="1"/>
       <c r="Z225" s="1"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8034,7 +8023,7 @@
       <c r="Y226" s="1"/>
       <c r="Z226" s="1"/>
     </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8062,7 +8051,7 @@
       <c r="Y227" s="1"/>
       <c r="Z227" s="1"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8090,7 +8079,7 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8118,7 +8107,7 @@
       <c r="Y229" s="1"/>
       <c r="Z229" s="1"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8146,7 +8135,7 @@
       <c r="Y230" s="1"/>
       <c r="Z230" s="1"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8174,7 +8163,7 @@
       <c r="Y231" s="1"/>
       <c r="Z231" s="1"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8202,7 +8191,7 @@
       <c r="Y232" s="1"/>
       <c r="Z232" s="1"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8230,7 +8219,7 @@
       <c r="Y233" s="1"/>
       <c r="Z233" s="1"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8258,7 +8247,7 @@
       <c r="Y234" s="1"/>
       <c r="Z234" s="1"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8286,7 +8275,7 @@
       <c r="Y235" s="1"/>
       <c r="Z235" s="1"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8314,7 +8303,7 @@
       <c r="Y236" s="1"/>
       <c r="Z236" s="1"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8342,7 +8331,7 @@
       <c r="Y237" s="1"/>
       <c r="Z237" s="1"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8370,7 +8359,7 @@
       <c r="Y238" s="1"/>
       <c r="Z238" s="1"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8398,7 +8387,7 @@
       <c r="Y239" s="1"/>
       <c r="Z239" s="1"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8426,7 +8415,7 @@
       <c r="Y240" s="1"/>
       <c r="Z240" s="1"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8454,7 +8443,7 @@
       <c r="Y241" s="1"/>
       <c r="Z241" s="1"/>
     </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8482,7 +8471,7 @@
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8510,7 +8499,7 @@
       <c r="Y243" s="1"/>
       <c r="Z243" s="1"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8538,7 +8527,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8566,7 +8555,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8594,7 +8583,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8622,7 +8611,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8650,7 +8639,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8678,7 +8667,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8706,7 +8695,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8734,7 +8723,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8762,7 +8751,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8790,7 +8779,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8818,7 +8807,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8846,7 +8835,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8874,7 +8863,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8902,7 +8891,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8930,7 +8919,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8958,7 +8947,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8986,7 +8975,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9014,7 +9003,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9042,7 +9031,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9070,7 +9059,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9098,7 +9087,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9126,7 +9115,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9154,7 +9143,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9182,7 +9171,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9210,7 +9199,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9238,7 +9227,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="15.75" customHeight="1">
+    <row r="270" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9266,7 +9255,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9294,7 +9283,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9322,7 +9311,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9350,7 +9339,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9378,7 +9367,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="15.75" customHeight="1">
+    <row r="275" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9406,7 +9395,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -9434,7 +9423,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1">
+    <row r="277" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -9462,7 +9451,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -9490,7 +9479,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -9518,7 +9507,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="15.75" customHeight="1">
+    <row r="280" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -9546,7 +9535,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9574,7 +9563,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9602,7 +9591,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9630,7 +9619,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9658,7 +9647,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9686,7 +9675,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -9714,7 +9703,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -9742,7 +9731,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -9770,7 +9759,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -9798,7 +9787,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -9826,7 +9815,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="15.75" customHeight="1">
+    <row r="291" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -9854,7 +9843,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -9882,7 +9871,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -9910,7 +9899,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1">
+    <row r="294" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -9938,7 +9927,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" ht="15.75" customHeight="1">
+    <row r="295" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -9966,7 +9955,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -9994,7 +9983,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="15.75" customHeight="1">
+    <row r="297" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10022,7 +10011,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10050,7 +10039,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="15.75" customHeight="1">
+    <row r="299" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10078,7 +10067,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10106,7 +10095,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10134,7 +10123,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="15.75" customHeight="1">
+    <row r="302" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10162,7 +10151,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="15.75" customHeight="1">
+    <row r="303" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10190,7 +10179,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" ht="15.75" customHeight="1">
+    <row r="304" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10218,7 +10207,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10246,7 +10235,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10274,7 +10263,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -10302,7 +10291,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" ht="15.75" customHeight="1">
+    <row r="308" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -10330,7 +10319,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" ht="15.75" customHeight="1">
+    <row r="309" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -10358,7 +10347,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -10386,7 +10375,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -10414,7 +10403,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -10442,7 +10431,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -10470,7 +10459,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -10498,7 +10487,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -10526,7 +10515,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -10554,7 +10543,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -10582,7 +10571,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -10610,7 +10599,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -10638,7 +10627,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -10666,7 +10655,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" ht="15.75" customHeight="1">
+    <row r="321" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -10694,7 +10683,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -10722,7 +10711,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -10750,7 +10739,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -10778,7 +10767,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -10806,7 +10795,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -10834,7 +10823,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -10862,7 +10851,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -10890,7 +10879,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -10918,7 +10907,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -10946,7 +10935,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -10974,7 +10963,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -11002,7 +10991,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11030,7 +11019,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11058,7 +11047,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11086,7 +11075,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11114,7 +11103,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11142,7 +11131,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11170,7 +11159,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11198,7 +11187,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -11226,7 +11215,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -11254,7 +11243,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -11282,7 +11271,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -11310,7 +11299,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -11338,7 +11327,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -11366,7 +11355,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -11394,7 +11383,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -11422,7 +11411,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -11450,7 +11439,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -11478,7 +11467,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -11506,7 +11495,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -11534,7 +11523,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -11562,7 +11551,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" ht="15.75" customHeight="1">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -11590,7 +11579,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" ht="15.75" customHeight="1">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -11618,7 +11607,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" ht="15.75" customHeight="1">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -11646,7 +11635,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" ht="15.75" customHeight="1">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -11674,7 +11663,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" ht="15.75" customHeight="1">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -11702,7 +11691,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" ht="15.75" customHeight="1">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -11730,7 +11719,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" ht="15.75" customHeight="1">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -11758,7 +11747,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" ht="15.75" customHeight="1">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -11786,7 +11775,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" ht="15.75" customHeight="1">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -11814,7 +11803,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" ht="15.75" customHeight="1">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -11842,7 +11831,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" ht="15.75" customHeight="1">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -11870,7 +11859,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" ht="15.75" customHeight="1">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -11898,7 +11887,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" ht="15.75" customHeight="1">
+    <row r="365" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -11926,7 +11915,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" ht="15.75" customHeight="1">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -11954,7 +11943,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" ht="15.75" customHeight="1">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -11982,7 +11971,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" ht="15.75" customHeight="1">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12010,7 +11999,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" ht="15.75" customHeight="1">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12038,7 +12027,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" ht="15.75" customHeight="1">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12066,7 +12055,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" ht="15.75" customHeight="1">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12094,7 +12083,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" ht="15.75" customHeight="1">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12122,7 +12111,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" ht="15.75" customHeight="1">
+    <row r="373" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12150,7 +12139,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12178,7 +12167,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -12206,7 +12195,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" ht="15.75" customHeight="1">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -12234,7 +12223,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" ht="15.75" customHeight="1">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -12262,7 +12251,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" ht="15.75" customHeight="1">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -12290,7 +12279,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" ht="15.75" customHeight="1">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -12318,7 +12307,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" ht="15.75" customHeight="1">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -12346,7 +12335,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" ht="15.75" customHeight="1">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -12374,7 +12363,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" ht="15.75" customHeight="1">
+    <row r="382" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -12402,7 +12391,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" ht="15.75" customHeight="1">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -12430,7 +12419,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" ht="15.75" customHeight="1">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -12458,7 +12447,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -12486,7 +12475,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -12514,7 +12503,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -12542,7 +12531,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -12570,7 +12559,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -12598,7 +12587,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="15.75" customHeight="1">
+    <row r="390" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -12626,7 +12615,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="15.75" customHeight="1">
+    <row r="391" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -12654,7 +12643,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="15.75" customHeight="1">
+    <row r="392" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -12682,7 +12671,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="15.75" customHeight="1">
+    <row r="393" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -12710,7 +12699,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="15.75" customHeight="1">
+    <row r="394" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -12738,7 +12727,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -12766,7 +12755,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -12794,7 +12783,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -12822,7 +12811,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -12850,7 +12839,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -12878,7 +12867,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -12906,7 +12895,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -12934,7 +12923,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -12962,7 +12951,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -12990,7 +12979,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13018,7 +13007,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13046,7 +13035,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13074,7 +13063,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" ht="15.75" customHeight="1">
+    <row r="407" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13102,7 +13091,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" ht="15.75" customHeight="1">
+    <row r="408" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13130,7 +13119,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13158,7 +13147,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -13186,7 +13175,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -13214,7 +13203,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -13242,7 +13231,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -13270,7 +13259,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -13298,7 +13287,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -13326,7 +13315,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" ht="15.75" customHeight="1">
+    <row r="416" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -13354,7 +13343,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="15.75" customHeight="1">
+    <row r="417" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -13382,7 +13371,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="15.75" customHeight="1">
+    <row r="418" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -13410,7 +13399,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -13438,7 +13427,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="15.75" customHeight="1">
+    <row r="420" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -13466,7 +13455,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="15.75" customHeight="1">
+    <row r="421" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -13494,7 +13483,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="15.75" customHeight="1">
+    <row r="422" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -13522,7 +13511,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="15.75" customHeight="1">
+    <row r="423" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -13550,7 +13539,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="15.75" customHeight="1">
+    <row r="424" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -13578,7 +13567,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="15.75" customHeight="1">
+    <row r="425" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -13606,7 +13595,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -13634,7 +13623,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -13662,7 +13651,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -13690,7 +13679,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -13718,7 +13707,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -13746,7 +13735,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -13774,7 +13763,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="15.75" customHeight="1">
+    <row r="432" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -13802,7 +13791,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="15.75" customHeight="1">
+    <row r="433" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -13830,7 +13819,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="15.75" customHeight="1">
+    <row r="434" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -13858,7 +13847,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="15.75" customHeight="1">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -13886,7 +13875,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="15.75" customHeight="1">
+    <row r="436" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -13914,7 +13903,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="15.75" customHeight="1">
+    <row r="437" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -13942,7 +13931,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="15.75" customHeight="1">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -13970,7 +13959,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="15.75" customHeight="1">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -13998,7 +13987,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="15.75" customHeight="1">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14026,7 +14015,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="15.75" customHeight="1">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14054,7 +14043,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="15.75" customHeight="1">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14082,7 +14071,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="15.75" customHeight="1">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14110,7 +14099,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="15.75" customHeight="1">
+    <row r="444" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14138,7 +14127,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="15.75" customHeight="1">
+    <row r="445" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14166,7 +14155,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="15.75" customHeight="1">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -14194,7 +14183,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="15.75" customHeight="1">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -14222,7 +14211,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="15.75" customHeight="1">
+    <row r="448" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -14250,7 +14239,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="15.75" customHeight="1">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -14278,7 +14267,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="15.75" customHeight="1">
+    <row r="450" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -14306,7 +14295,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="15.75" customHeight="1">
+    <row r="451" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -14334,7 +14323,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="15.75" customHeight="1">
+    <row r="452" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -14362,7 +14351,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="15.75" customHeight="1">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -14390,7 +14379,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="15.75" customHeight="1">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -14418,7 +14407,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="15.75" customHeight="1">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -14446,7 +14435,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="15.75" customHeight="1">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -14474,7 +14463,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="15.75" customHeight="1">
+    <row r="457" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -14502,7 +14491,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="15.75" customHeight="1">
+    <row r="458" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -14530,7 +14519,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="15.75" customHeight="1">
+    <row r="459" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -14558,7 +14547,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="15.75" customHeight="1">
+    <row r="460" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -14586,7 +14575,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="15.75" customHeight="1">
+    <row r="461" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -14614,7 +14603,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -14642,7 +14631,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -14670,7 +14659,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="15.75" customHeight="1">
+    <row r="464" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -14698,7 +14687,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -14726,7 +14715,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="15.75" customHeight="1">
+    <row r="466" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -14754,7 +14743,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="15.75" customHeight="1">
+    <row r="467" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -14782,7 +14771,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -14810,7 +14799,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -14838,7 +14827,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -14866,7 +14855,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="15.75" customHeight="1">
+    <row r="471" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -14894,7 +14883,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="15.75" customHeight="1">
+    <row r="472" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -14922,7 +14911,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="15.75" customHeight="1">
+    <row r="473" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -14950,7 +14939,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -14978,7 +14967,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -15006,7 +14995,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15034,7 +15023,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="15.75" customHeight="1">
+    <row r="477" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15062,7 +15051,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="15.75" customHeight="1">
+    <row r="478" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15090,7 +15079,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="15.75" customHeight="1">
+    <row r="479" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15118,7 +15107,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15146,7 +15135,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15174,7 +15163,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -15202,7 +15191,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -15230,7 +15219,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -15258,7 +15247,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -15286,7 +15275,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -15314,7 +15303,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -15342,7 +15331,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="15.75" customHeight="1">
+    <row r="488" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -15370,7 +15359,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -15398,7 +15387,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -15426,7 +15415,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -15454,7 +15443,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -15482,7 +15471,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -15510,7 +15499,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -15538,7 +15527,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -15566,7 +15555,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -15594,7 +15583,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="15.75" customHeight="1">
+    <row r="497" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -15622,7 +15611,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -15650,7 +15639,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -15678,7 +15667,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="15.75" customHeight="1">
+    <row r="500" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -15706,7 +15695,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -15734,7 +15723,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -15762,7 +15751,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -15790,7 +15779,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -15818,7 +15807,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="15.75" customHeight="1">
+    <row r="505" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -15846,7 +15835,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="15.75" customHeight="1">
+    <row r="506" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -15874,7 +15863,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="15.75" customHeight="1">
+    <row r="507" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -15902,7 +15891,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -15930,7 +15919,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -15958,7 +15947,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="15.75" customHeight="1">
+    <row r="510" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -15986,7 +15975,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="15.75" customHeight="1">
+    <row r="511" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -16014,7 +16003,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16042,7 +16031,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16070,7 +16059,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16098,7 +16087,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16126,7 +16115,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16154,7 +16143,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -16182,7 +16171,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -16210,7 +16199,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -16238,7 +16227,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -16266,7 +16255,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -16294,7 +16283,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -16322,7 +16311,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -16350,7 +16339,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -16378,7 +16367,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -16406,7 +16395,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="15.75" customHeight="1">
+    <row r="526" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -16434,7 +16423,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -16462,7 +16451,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -16490,7 +16479,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -16518,7 +16507,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -16546,7 +16535,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -16574,7 +16563,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -16602,7 +16591,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -16630,7 +16619,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -16658,7 +16647,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -16686,7 +16675,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -16714,7 +16703,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="15.75" customHeight="1">
+    <row r="537" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -16742,7 +16731,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="15.75" customHeight="1">
+    <row r="538" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -16770,7 +16759,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -16798,7 +16787,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -16826,7 +16815,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -16854,7 +16843,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="15.75" customHeight="1">
+    <row r="542" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -16882,7 +16871,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -16910,7 +16899,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -16938,7 +16927,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="15.75" customHeight="1">
+    <row r="545" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -16966,7 +16955,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -16994,7 +16983,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17022,7 +17011,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="15.75" customHeight="1">
+    <row r="548" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17050,7 +17039,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17078,7 +17067,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="15.75" customHeight="1">
+    <row r="550" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17106,7 +17095,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17134,7 +17123,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="15.75" customHeight="1">
+    <row r="552" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17162,7 +17151,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="15.75" customHeight="1">
+    <row r="553" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -17190,7 +17179,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -17218,7 +17207,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -17246,7 +17235,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -17274,7 +17263,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -17302,7 +17291,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="15.75" customHeight="1">
+    <row r="558" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -17330,7 +17319,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="15.75" customHeight="1">
+    <row r="559" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -17358,7 +17347,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="15.75" customHeight="1">
+    <row r="560" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -17386,7 +17375,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="15.75" customHeight="1">
+    <row r="561" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -17414,7 +17403,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="15.75" customHeight="1">
+    <row r="562" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -17442,7 +17431,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -17470,7 +17459,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -17498,7 +17487,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -17526,7 +17515,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -17554,7 +17543,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -17582,7 +17571,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -17610,7 +17599,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -17638,7 +17627,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="15.75" customHeight="1">
+    <row r="570" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -17666,7 +17655,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -17694,7 +17683,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -17722,7 +17711,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -17750,7 +17739,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -17778,7 +17767,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="15.75" customHeight="1">
+    <row r="575" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -17806,7 +17795,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -17834,7 +17823,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -17862,7 +17851,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -17890,7 +17879,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="15.75" customHeight="1">
+    <row r="579" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -17918,7 +17907,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -17946,7 +17935,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -17974,7 +17963,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -18002,7 +17991,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18030,7 +18019,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18058,7 +18047,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18086,7 +18075,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18114,7 +18103,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="15.75" customHeight="1">
+    <row r="587" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18142,7 +18131,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="15.75" customHeight="1">
+    <row r="588" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18170,7 +18159,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -18198,7 +18187,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -18226,7 +18215,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -18254,7 +18243,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -18282,7 +18271,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -18310,7 +18299,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -18338,7 +18327,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="15.75" customHeight="1">
+    <row r="595" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -18366,7 +18355,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -18394,7 +18383,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -18422,7 +18411,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -18450,7 +18439,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -18478,7 +18467,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -18506,7 +18495,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -18534,7 +18523,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="15.75" customHeight="1">
+    <row r="602" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -18562,7 +18551,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -18590,7 +18579,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -18618,7 +18607,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -18646,7 +18635,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -18674,7 +18663,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -18702,7 +18691,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="15.75" customHeight="1">
+    <row r="608" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -18730,7 +18719,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="15.75" customHeight="1">
+    <row r="609" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -18758,7 +18747,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="15.75" customHeight="1">
+    <row r="610" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -18786,7 +18775,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -18814,7 +18803,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -18842,7 +18831,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -18870,7 +18859,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -18898,7 +18887,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -18926,7 +18915,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -18954,7 +18943,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -18982,7 +18971,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -19010,7 +18999,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19038,7 +19027,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="15.75" customHeight="1">
+    <row r="620" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19066,7 +19055,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="15.75" customHeight="1">
+    <row r="621" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19094,7 +19083,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19122,7 +19111,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19150,7 +19139,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="15.75" customHeight="1">
+    <row r="624" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19178,7 +19167,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -19206,7 +19195,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -19234,7 +19223,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -19262,7 +19251,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -19290,7 +19279,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -19318,7 +19307,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -19346,7 +19335,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -19374,7 +19363,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -19402,7 +19391,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -19430,7 +19419,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="15.75" customHeight="1">
+    <row r="634" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -19458,7 +19447,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="15.75" customHeight="1">
+    <row r="635" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -19486,7 +19475,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="15.75" customHeight="1">
+    <row r="636" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -19514,7 +19503,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -19542,7 +19531,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -19570,7 +19559,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -19598,7 +19587,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -19626,7 +19615,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -19654,7 +19643,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="15.75" customHeight="1">
+    <row r="642" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -19682,7 +19671,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="15.75" customHeight="1">
+    <row r="643" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -19710,7 +19699,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -19738,7 +19727,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -19766,7 +19755,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="15.75" customHeight="1">
+    <row r="646" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -19794,7 +19783,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -19822,7 +19811,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -19850,7 +19839,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="15.75" customHeight="1">
+    <row r="649" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -19878,7 +19867,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -19906,7 +19895,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="15.75" customHeight="1">
+    <row r="651" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -19934,7 +19923,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="15.75" customHeight="1">
+    <row r="652" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -19962,7 +19951,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -19990,7 +19979,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20018,7 +20007,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="15.75" customHeight="1">
+    <row r="655" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20046,7 +20035,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20074,7 +20063,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20102,7 +20091,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="15.75" customHeight="1">
+    <row r="658" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20130,7 +20119,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="15.75" customHeight="1">
+    <row r="659" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20158,7 +20147,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="15.75" customHeight="1">
+    <row r="660" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -20186,7 +20175,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="15.75" customHeight="1">
+    <row r="661" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -20214,7 +20203,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="15.75" customHeight="1">
+    <row r="662" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -20242,7 +20231,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="15.75" customHeight="1">
+    <row r="663" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -20270,7 +20259,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="15.75" customHeight="1">
+    <row r="664" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -20298,7 +20287,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="15.75" customHeight="1">
+    <row r="665" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -20326,7 +20315,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="15.75" customHeight="1">
+    <row r="666" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -20354,7 +20343,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="15.75" customHeight="1">
+    <row r="667" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -20382,7 +20371,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="15.75" customHeight="1">
+    <row r="668" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -20410,7 +20399,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="15.75" customHeight="1">
+    <row r="669" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -20438,7 +20427,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="15.75" customHeight="1">
+    <row r="670" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -20466,7 +20455,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="15.75" customHeight="1">
+    <row r="671" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -20494,7 +20483,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="15.75" customHeight="1">
+    <row r="672" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -20522,7 +20511,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="15.75" customHeight="1">
+    <row r="673" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -20550,7 +20539,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="15.75" customHeight="1">
+    <row r="674" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -20578,7 +20567,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="15.75" customHeight="1">
+    <row r="675" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -20606,7 +20595,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="15.75" customHeight="1">
+    <row r="676" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -20634,7 +20623,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="15.75" customHeight="1">
+    <row r="677" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -20662,7 +20651,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="15.75" customHeight="1">
+    <row r="678" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -20690,7 +20679,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="15.75" customHeight="1">
+    <row r="679" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -20718,7 +20707,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="15.75" customHeight="1">
+    <row r="680" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -20746,7 +20735,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="15.75" customHeight="1">
+    <row r="681" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -20774,7 +20763,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="15.75" customHeight="1">
+    <row r="682" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -20802,7 +20791,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="15.75" customHeight="1">
+    <row r="683" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -20830,7 +20819,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="15.75" customHeight="1">
+    <row r="684" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -20858,7 +20847,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="15.75" customHeight="1">
+    <row r="685" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -20886,7 +20875,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="15.75" customHeight="1">
+    <row r="686" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -20914,7 +20903,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="15.75" customHeight="1">
+    <row r="687" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -20942,7 +20931,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="15.75" customHeight="1">
+    <row r="688" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -20970,7 +20959,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="15.75" customHeight="1">
+    <row r="689" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -20998,7 +20987,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="15.75" customHeight="1">
+    <row r="690" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21026,7 +21015,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="15.75" customHeight="1">
+    <row r="691" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21054,7 +21043,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="15.75" customHeight="1">
+    <row r="692" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21082,7 +21071,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="15.75" customHeight="1">
+    <row r="693" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21110,7 +21099,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="15.75" customHeight="1">
+    <row r="694" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21138,7 +21127,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="15.75" customHeight="1">
+    <row r="695" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21166,7 +21155,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="15.75" customHeight="1">
+    <row r="696" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -21194,7 +21183,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="15.75" customHeight="1">
+    <row r="697" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -21222,7 +21211,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="15.75" customHeight="1">
+    <row r="698" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -21250,7 +21239,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="15.75" customHeight="1">
+    <row r="699" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -21278,7 +21267,7 @@
       <c r="Y699" s="2"/>
       <c r="Z699" s="2"/>
     </row>
-    <row r="700" spans="1:26" ht="15.75" customHeight="1">
+    <row r="700" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -21306,7 +21295,7 @@
       <c r="Y700" s="2"/>
       <c r="Z700" s="2"/>
     </row>
-    <row r="701" spans="1:26" ht="15.75" customHeight="1">
+    <row r="701" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -21334,7 +21323,7 @@
       <c r="Y701" s="2"/>
       <c r="Z701" s="2"/>
     </row>
-    <row r="702" spans="1:26" ht="15.75" customHeight="1">
+    <row r="702" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -21362,7 +21351,7 @@
       <c r="Y702" s="2"/>
       <c r="Z702" s="2"/>
     </row>
-    <row r="703" spans="1:26" ht="15.75" customHeight="1">
+    <row r="703" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -21390,7 +21379,7 @@
       <c r="Y703" s="2"/>
       <c r="Z703" s="2"/>
     </row>
-    <row r="704" spans="1:26" ht="15.75" customHeight="1">
+    <row r="704" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -21418,7 +21407,7 @@
       <c r="Y704" s="2"/>
       <c r="Z704" s="2"/>
     </row>
-    <row r="705" spans="1:26" ht="15.75" customHeight="1">
+    <row r="705" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -21446,7 +21435,7 @@
       <c r="Y705" s="2"/>
       <c r="Z705" s="2"/>
     </row>
-    <row r="706" spans="1:26" ht="15.75" customHeight="1">
+    <row r="706" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -21474,7 +21463,7 @@
       <c r="Y706" s="2"/>
       <c r="Z706" s="2"/>
     </row>
-    <row r="707" spans="1:26" ht="15.75" customHeight="1">
+    <row r="707" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -21502,7 +21491,7 @@
       <c r="Y707" s="2"/>
       <c r="Z707" s="2"/>
     </row>
-    <row r="708" spans="1:26" ht="15.75" customHeight="1">
+    <row r="708" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -21530,7 +21519,7 @@
       <c r="Y708" s="2"/>
       <c r="Z708" s="2"/>
     </row>
-    <row r="709" spans="1:26" ht="15.75" customHeight="1">
+    <row r="709" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -21558,7 +21547,7 @@
       <c r="Y709" s="2"/>
       <c r="Z709" s="2"/>
     </row>
-    <row r="710" spans="1:26" ht="15.75" customHeight="1">
+    <row r="710" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -21586,7 +21575,7 @@
       <c r="Y710" s="2"/>
       <c r="Z710" s="2"/>
     </row>
-    <row r="711" spans="1:26" ht="15.75" customHeight="1">
+    <row r="711" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -21614,7 +21603,7 @@
       <c r="Y711" s="2"/>
       <c r="Z711" s="2"/>
     </row>
-    <row r="712" spans="1:26" ht="15.75" customHeight="1">
+    <row r="712" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -21642,7 +21631,7 @@
       <c r="Y712" s="2"/>
       <c r="Z712" s="2"/>
     </row>
-    <row r="713" spans="1:26" ht="15.75" customHeight="1">
+    <row r="713" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -21670,7 +21659,7 @@
       <c r="Y713" s="2"/>
       <c r="Z713" s="2"/>
     </row>
-    <row r="714" spans="1:26" ht="15.75" customHeight="1">
+    <row r="714" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -21698,7 +21687,7 @@
       <c r="Y714" s="2"/>
       <c r="Z714" s="2"/>
     </row>
-    <row r="715" spans="1:26" ht="15.75" customHeight="1">
+    <row r="715" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -21726,7 +21715,7 @@
       <c r="Y715" s="2"/>
       <c r="Z715" s="2"/>
     </row>
-    <row r="716" spans="1:26" ht="15.75" customHeight="1">
+    <row r="716" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -21754,7 +21743,7 @@
       <c r="Y716" s="2"/>
       <c r="Z716" s="2"/>
     </row>
-    <row r="717" spans="1:26" ht="15.75" customHeight="1">
+    <row r="717" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -21782,7 +21771,7 @@
       <c r="Y717" s="2"/>
       <c r="Z717" s="2"/>
     </row>
-    <row r="718" spans="1:26" ht="15.75" customHeight="1">
+    <row r="718" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -21810,7 +21799,7 @@
       <c r="Y718" s="2"/>
       <c r="Z718" s="2"/>
     </row>
-    <row r="719" spans="1:26" ht="15.75" customHeight="1">
+    <row r="719" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -21838,7 +21827,7 @@
       <c r="Y719" s="2"/>
       <c r="Z719" s="2"/>
     </row>
-    <row r="720" spans="1:26" ht="15.75" customHeight="1">
+    <row r="720" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -21866,7 +21855,7 @@
       <c r="Y720" s="2"/>
       <c r="Z720" s="2"/>
     </row>
-    <row r="721" spans="1:26" ht="15.75" customHeight="1">
+    <row r="721" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -21894,7 +21883,7 @@
       <c r="Y721" s="2"/>
       <c r="Z721" s="2"/>
     </row>
-    <row r="722" spans="1:26" ht="15.75" customHeight="1">
+    <row r="722" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -21922,7 +21911,7 @@
       <c r="Y722" s="2"/>
       <c r="Z722" s="2"/>
     </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -21950,7 +21939,7 @@
       <c r="Y723" s="2"/>
       <c r="Z723" s="2"/>
     </row>
-    <row r="724" spans="1:26" ht="15.75" customHeight="1">
+    <row r="724" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -21978,7 +21967,7 @@
       <c r="Y724" s="2"/>
       <c r="Z724" s="2"/>
     </row>
-    <row r="725" spans="1:26" ht="15.75" customHeight="1">
+    <row r="725" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -22006,7 +21995,7 @@
       <c r="Y725" s="2"/>
       <c r="Z725" s="2"/>
     </row>
-    <row r="726" spans="1:26" ht="15.75" customHeight="1">
+    <row r="726" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22034,7 +22023,7 @@
       <c r="Y726" s="2"/>
       <c r="Z726" s="2"/>
     </row>
-    <row r="727" spans="1:26" ht="15.75" customHeight="1">
+    <row r="727" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22062,7 +22051,7 @@
       <c r="Y727" s="2"/>
       <c r="Z727" s="2"/>
     </row>
-    <row r="728" spans="1:26" ht="15.75" customHeight="1">
+    <row r="728" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22090,7 +22079,7 @@
       <c r="Y728" s="2"/>
       <c r="Z728" s="2"/>
     </row>
-    <row r="729" spans="1:26" ht="15.75" customHeight="1">
+    <row r="729" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22118,7 +22107,7 @@
       <c r="Y729" s="2"/>
       <c r="Z729" s="2"/>
     </row>
-    <row r="730" spans="1:26" ht="15.75" customHeight="1">
+    <row r="730" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22146,7 +22135,7 @@
       <c r="Y730" s="2"/>
       <c r="Z730" s="2"/>
     </row>
-    <row r="731" spans="1:26" ht="15.75" customHeight="1">
+    <row r="731" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22174,7 +22163,7 @@
       <c r="Y731" s="2"/>
       <c r="Z731" s="2"/>
     </row>
-    <row r="732" spans="1:26" ht="15.75" customHeight="1">
+    <row r="732" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -22202,7 +22191,7 @@
       <c r="Y732" s="2"/>
       <c r="Z732" s="2"/>
     </row>
-    <row r="733" spans="1:26" ht="15.75" customHeight="1">
+    <row r="733" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -22230,7 +22219,7 @@
       <c r="Y733" s="2"/>
       <c r="Z733" s="2"/>
     </row>
-    <row r="734" spans="1:26" ht="15.75" customHeight="1">
+    <row r="734" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -22258,7 +22247,7 @@
       <c r="Y734" s="2"/>
       <c r="Z734" s="2"/>
     </row>
-    <row r="735" spans="1:26" ht="15.75" customHeight="1">
+    <row r="735" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -22286,7 +22275,7 @@
       <c r="Y735" s="2"/>
       <c r="Z735" s="2"/>
     </row>
-    <row r="736" spans="1:26" ht="15.75" customHeight="1">
+    <row r="736" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -22314,7 +22303,7 @@
       <c r="Y736" s="2"/>
       <c r="Z736" s="2"/>
     </row>
-    <row r="737" spans="1:26" ht="15.75" customHeight="1">
+    <row r="737" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -22342,7 +22331,7 @@
       <c r="Y737" s="2"/>
       <c r="Z737" s="2"/>
     </row>
-    <row r="738" spans="1:26" ht="15.75" customHeight="1">
+    <row r="738" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -22370,7 +22359,7 @@
       <c r="Y738" s="2"/>
       <c r="Z738" s="2"/>
     </row>
-    <row r="739" spans="1:26" ht="15.75" customHeight="1">
+    <row r="739" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -22398,7 +22387,7 @@
       <c r="Y739" s="2"/>
       <c r="Z739" s="2"/>
     </row>
-    <row r="740" spans="1:26" ht="15.75" customHeight="1">
+    <row r="740" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -22426,7 +22415,7 @@
       <c r="Y740" s="2"/>
       <c r="Z740" s="2"/>
     </row>
-    <row r="741" spans="1:26" ht="15.75" customHeight="1">
+    <row r="741" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -22454,7 +22443,7 @@
       <c r="Y741" s="2"/>
       <c r="Z741" s="2"/>
     </row>
-    <row r="742" spans="1:26" ht="15.75" customHeight="1">
+    <row r="742" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -22482,7 +22471,7 @@
       <c r="Y742" s="2"/>
       <c r="Z742" s="2"/>
     </row>
-    <row r="743" spans="1:26" ht="15.75" customHeight="1">
+    <row r="743" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -22510,7 +22499,7 @@
       <c r="Y743" s="2"/>
       <c r="Z743" s="2"/>
     </row>
-    <row r="744" spans="1:26" ht="15.75" customHeight="1">
+    <row r="744" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -22538,7 +22527,7 @@
       <c r="Y744" s="2"/>
       <c r="Z744" s="2"/>
     </row>
-    <row r="745" spans="1:26" ht="15.75" customHeight="1">
+    <row r="745" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -22566,7 +22555,7 @@
       <c r="Y745" s="2"/>
       <c r="Z745" s="2"/>
     </row>
-    <row r="746" spans="1:26" ht="15.75" customHeight="1">
+    <row r="746" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -22594,7 +22583,7 @@
       <c r="Y746" s="2"/>
       <c r="Z746" s="2"/>
     </row>
-    <row r="747" spans="1:26" ht="15.75" customHeight="1">
+    <row r="747" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -22622,7 +22611,7 @@
       <c r="Y747" s="2"/>
       <c r="Z747" s="2"/>
     </row>
-    <row r="748" spans="1:26" ht="15.75" customHeight="1">
+    <row r="748" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -22650,7 +22639,7 @@
       <c r="Y748" s="2"/>
       <c r="Z748" s="2"/>
     </row>
-    <row r="749" spans="1:26" ht="15.75" customHeight="1">
+    <row r="749" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -22678,7 +22667,7 @@
       <c r="Y749" s="2"/>
       <c r="Z749" s="2"/>
     </row>
-    <row r="750" spans="1:26" ht="15.75" customHeight="1">
+    <row r="750" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -22706,7 +22695,7 @@
       <c r="Y750" s="2"/>
       <c r="Z750" s="2"/>
     </row>
-    <row r="751" spans="1:26" ht="15.75" customHeight="1">
+    <row r="751" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -22734,7 +22723,7 @@
       <c r="Y751" s="2"/>
       <c r="Z751" s="2"/>
     </row>
-    <row r="752" spans="1:26" ht="15.75" customHeight="1">
+    <row r="752" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -22762,7 +22751,7 @@
       <c r="Y752" s="2"/>
       <c r="Z752" s="2"/>
     </row>
-    <row r="753" spans="1:26" ht="15.75" customHeight="1">
+    <row r="753" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -22790,7 +22779,7 @@
       <c r="Y753" s="2"/>
       <c r="Z753" s="2"/>
     </row>
-    <row r="754" spans="1:26" ht="15.75" customHeight="1">
+    <row r="754" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -22818,7 +22807,7 @@
       <c r="Y754" s="2"/>
       <c r="Z754" s="2"/>
     </row>
-    <row r="755" spans="1:26" ht="15.75" customHeight="1">
+    <row r="755" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -22846,7 +22835,7 @@
       <c r="Y755" s="2"/>
       <c r="Z755" s="2"/>
     </row>
-    <row r="756" spans="1:26" ht="15.75" customHeight="1">
+    <row r="756" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -22874,7 +22863,7 @@
       <c r="Y756" s="2"/>
       <c r="Z756" s="2"/>
     </row>
-    <row r="757" spans="1:26" ht="15.75" customHeight="1">
+    <row r="757" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -22902,7 +22891,7 @@
       <c r="Y757" s="2"/>
       <c r="Z757" s="2"/>
     </row>
-    <row r="758" spans="1:26" ht="15.75" customHeight="1">
+    <row r="758" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -22930,7 +22919,7 @@
       <c r="Y758" s="2"/>
       <c r="Z758" s="2"/>
     </row>
-    <row r="759" spans="1:26" ht="15.75" customHeight="1">
+    <row r="759" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -22958,7 +22947,7 @@
       <c r="Y759" s="2"/>
       <c r="Z759" s="2"/>
     </row>
-    <row r="760" spans="1:26" ht="15.75" customHeight="1">
+    <row r="760" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -22986,7 +22975,7 @@
       <c r="Y760" s="2"/>
       <c r="Z760" s="2"/>
     </row>
-    <row r="761" spans="1:26" ht="15.75" customHeight="1">
+    <row r="761" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -23014,7 +23003,7 @@
       <c r="Y761" s="2"/>
       <c r="Z761" s="2"/>
     </row>
-    <row r="762" spans="1:26" ht="15.75" customHeight="1">
+    <row r="762" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23042,7 +23031,7 @@
       <c r="Y762" s="2"/>
       <c r="Z762" s="2"/>
     </row>
-    <row r="763" spans="1:26" ht="15.75" customHeight="1">
+    <row r="763" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23070,7 +23059,7 @@
       <c r="Y763" s="2"/>
       <c r="Z763" s="2"/>
     </row>
-    <row r="764" spans="1:26" ht="15.75" customHeight="1">
+    <row r="764" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23098,7 +23087,7 @@
       <c r="Y764" s="2"/>
       <c r="Z764" s="2"/>
     </row>
-    <row r="765" spans="1:26" ht="15.75" customHeight="1">
+    <row r="765" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23126,7 +23115,7 @@
       <c r="Y765" s="2"/>
       <c r="Z765" s="2"/>
     </row>
-    <row r="766" spans="1:26" ht="15.75" customHeight="1">
+    <row r="766" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23154,7 +23143,7 @@
       <c r="Y766" s="2"/>
       <c r="Z766" s="2"/>
     </row>
-    <row r="767" spans="1:26" ht="15.75" customHeight="1">
+    <row r="767" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -23182,7 +23171,7 @@
       <c r="Y767" s="2"/>
       <c r="Z767" s="2"/>
     </row>
-    <row r="768" spans="1:26" ht="15.75" customHeight="1">
+    <row r="768" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -23210,7 +23199,7 @@
       <c r="Y768" s="2"/>
       <c r="Z768" s="2"/>
     </row>
-    <row r="769" spans="1:26" ht="15.75" customHeight="1">
+    <row r="769" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -23238,7 +23227,7 @@
       <c r="Y769" s="2"/>
       <c r="Z769" s="2"/>
     </row>
-    <row r="770" spans="1:26" ht="15.75" customHeight="1">
+    <row r="770" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -23266,7 +23255,7 @@
       <c r="Y770" s="2"/>
       <c r="Z770" s="2"/>
     </row>
-    <row r="771" spans="1:26" ht="15.75" customHeight="1">
+    <row r="771" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -23294,7 +23283,7 @@
       <c r="Y771" s="2"/>
       <c r="Z771" s="2"/>
     </row>
-    <row r="772" spans="1:26" ht="15.75" customHeight="1">
+    <row r="772" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -23322,7 +23311,7 @@
       <c r="Y772" s="2"/>
       <c r="Z772" s="2"/>
     </row>
-    <row r="773" spans="1:26" ht="15.75" customHeight="1">
+    <row r="773" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -23350,7 +23339,7 @@
       <c r="Y773" s="2"/>
       <c r="Z773" s="2"/>
     </row>
-    <row r="774" spans="1:26" ht="15.75" customHeight="1">
+    <row r="774" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -23378,7 +23367,7 @@
       <c r="Y774" s="2"/>
       <c r="Z774" s="2"/>
     </row>
-    <row r="775" spans="1:26" ht="15.75" customHeight="1">
+    <row r="775" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -23406,7 +23395,7 @@
       <c r="Y775" s="2"/>
       <c r="Z775" s="2"/>
     </row>
-    <row r="776" spans="1:26" ht="15.75" customHeight="1">
+    <row r="776" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -23434,7 +23423,7 @@
       <c r="Y776" s="2"/>
       <c r="Z776" s="2"/>
     </row>
-    <row r="777" spans="1:26" ht="15.75" customHeight="1">
+    <row r="777" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -23462,7 +23451,7 @@
       <c r="Y777" s="2"/>
       <c r="Z777" s="2"/>
     </row>
-    <row r="778" spans="1:26" ht="15.75" customHeight="1">
+    <row r="778" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -23490,7 +23479,7 @@
       <c r="Y778" s="2"/>
       <c r="Z778" s="2"/>
     </row>
-    <row r="779" spans="1:26" ht="15.75" customHeight="1">
+    <row r="779" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -23518,7 +23507,7 @@
       <c r="Y779" s="2"/>
       <c r="Z779" s="2"/>
     </row>
-    <row r="780" spans="1:26" ht="15.75" customHeight="1">
+    <row r="780" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -23546,7 +23535,7 @@
       <c r="Y780" s="2"/>
       <c r="Z780" s="2"/>
     </row>
-    <row r="781" spans="1:26" ht="15.75" customHeight="1">
+    <row r="781" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -23574,7 +23563,7 @@
       <c r="Y781" s="2"/>
       <c r="Z781" s="2"/>
     </row>
-    <row r="782" spans="1:26" ht="15.75" customHeight="1">
+    <row r="782" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -23602,7 +23591,7 @@
       <c r="Y782" s="2"/>
       <c r="Z782" s="2"/>
     </row>
-    <row r="783" spans="1:26" ht="15.75" customHeight="1">
+    <row r="783" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -23630,7 +23619,7 @@
       <c r="Y783" s="2"/>
       <c r="Z783" s="2"/>
     </row>
-    <row r="784" spans="1:26" ht="15.75" customHeight="1">
+    <row r="784" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -23658,7 +23647,7 @@
       <c r="Y784" s="2"/>
       <c r="Z784" s="2"/>
     </row>
-    <row r="785" spans="1:26" ht="15.75" customHeight="1">
+    <row r="785" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -23686,7 +23675,7 @@
       <c r="Y785" s="2"/>
       <c r="Z785" s="2"/>
     </row>
-    <row r="786" spans="1:26" ht="15.75" customHeight="1">
+    <row r="786" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -23714,7 +23703,7 @@
       <c r="Y786" s="2"/>
       <c r="Z786" s="2"/>
     </row>
-    <row r="787" spans="1:26" ht="15.75" customHeight="1">
+    <row r="787" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -23742,7 +23731,7 @@
       <c r="Y787" s="2"/>
       <c r="Z787" s="2"/>
     </row>
-    <row r="788" spans="1:26" ht="15.75" customHeight="1">
+    <row r="788" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -23770,7 +23759,7 @@
       <c r="Y788" s="2"/>
       <c r="Z788" s="2"/>
     </row>
-    <row r="789" spans="1:26" ht="15.75" customHeight="1">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -23798,7 +23787,7 @@
       <c r="Y789" s="2"/>
       <c r="Z789" s="2"/>
     </row>
-    <row r="790" spans="1:26" ht="15.75" customHeight="1">
+    <row r="790" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -23826,7 +23815,7 @@
       <c r="Y790" s="2"/>
       <c r="Z790" s="2"/>
     </row>
-    <row r="791" spans="1:26" ht="15.75" customHeight="1">
+    <row r="791" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -23854,7 +23843,7 @@
       <c r="Y791" s="2"/>
       <c r="Z791" s="2"/>
     </row>
-    <row r="792" spans="1:26" ht="15.75" customHeight="1">
+    <row r="792" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -23882,7 +23871,7 @@
       <c r="Y792" s="2"/>
       <c r="Z792" s="2"/>
     </row>
-    <row r="793" spans="1:26" ht="15.75" customHeight="1">
+    <row r="793" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -23910,7 +23899,7 @@
       <c r="Y793" s="2"/>
       <c r="Z793" s="2"/>
     </row>
-    <row r="794" spans="1:26" ht="15.75" customHeight="1">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -23938,7 +23927,7 @@
       <c r="Y794" s="2"/>
       <c r="Z794" s="2"/>
     </row>
-    <row r="795" spans="1:26" ht="15.75" customHeight="1">
+    <row r="795" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -23966,7 +23955,7 @@
       <c r="Y795" s="2"/>
       <c r="Z795" s="2"/>
     </row>
-    <row r="796" spans="1:26" ht="15.75" customHeight="1">
+    <row r="796" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -23994,7 +23983,7 @@
       <c r="Y796" s="2"/>
       <c r="Z796" s="2"/>
     </row>
-    <row r="797" spans="1:26" ht="15.75" customHeight="1">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24022,7 +24011,7 @@
       <c r="Y797" s="2"/>
       <c r="Z797" s="2"/>
     </row>
-    <row r="798" spans="1:26" ht="15.75" customHeight="1">
+    <row r="798" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24050,7 +24039,7 @@
       <c r="Y798" s="2"/>
       <c r="Z798" s="2"/>
     </row>
-    <row r="799" spans="1:26" ht="15.75" customHeight="1">
+    <row r="799" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24078,7 +24067,7 @@
       <c r="Y799" s="2"/>
       <c r="Z799" s="2"/>
     </row>
-    <row r="800" spans="1:26" ht="15.75" customHeight="1">
+    <row r="800" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24106,7 +24095,7 @@
       <c r="Y800" s="2"/>
       <c r="Z800" s="2"/>
     </row>
-    <row r="801" spans="1:26" ht="15.75" customHeight="1">
+    <row r="801" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24134,7 +24123,7 @@
       <c r="Y801" s="2"/>
       <c r="Z801" s="2"/>
     </row>
-    <row r="802" spans="1:26" ht="15.75" customHeight="1">
+    <row r="802" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24162,7 +24151,7 @@
       <c r="Y802" s="2"/>
       <c r="Z802" s="2"/>
     </row>
-    <row r="803" spans="1:26" ht="15.75" customHeight="1">
+    <row r="803" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -24190,7 +24179,7 @@
       <c r="Y803" s="2"/>
       <c r="Z803" s="2"/>
     </row>
-    <row r="804" spans="1:26" ht="15.75" customHeight="1">
+    <row r="804" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -24218,7 +24207,7 @@
       <c r="Y804" s="2"/>
       <c r="Z804" s="2"/>
     </row>
-    <row r="805" spans="1:26" ht="15.75" customHeight="1">
+    <row r="805" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -24246,7 +24235,7 @@
       <c r="Y805" s="2"/>
       <c r="Z805" s="2"/>
     </row>
-    <row r="806" spans="1:26" ht="15.75" customHeight="1">
+    <row r="806" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -24274,7 +24263,7 @@
       <c r="Y806" s="2"/>
       <c r="Z806" s="2"/>
     </row>
-    <row r="807" spans="1:26" ht="15.75" customHeight="1">
+    <row r="807" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -24302,7 +24291,7 @@
       <c r="Y807" s="2"/>
       <c r="Z807" s="2"/>
     </row>
-    <row r="808" spans="1:26" ht="15.75" customHeight="1">
+    <row r="808" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -24330,7 +24319,7 @@
       <c r="Y808" s="2"/>
       <c r="Z808" s="2"/>
     </row>
-    <row r="809" spans="1:26" ht="15.75" customHeight="1">
+    <row r="809" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -24358,7 +24347,7 @@
       <c r="Y809" s="2"/>
       <c r="Z809" s="2"/>
     </row>
-    <row r="810" spans="1:26" ht="15.75" customHeight="1">
+    <row r="810" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -24386,7 +24375,7 @@
       <c r="Y810" s="2"/>
       <c r="Z810" s="2"/>
     </row>
-    <row r="811" spans="1:26" ht="15.75" customHeight="1">
+    <row r="811" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -24414,7 +24403,7 @@
       <c r="Y811" s="2"/>
       <c r="Z811" s="2"/>
     </row>
-    <row r="812" spans="1:26" ht="15.75" customHeight="1">
+    <row r="812" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -24442,7 +24431,7 @@
       <c r="Y812" s="2"/>
       <c r="Z812" s="2"/>
     </row>
-    <row r="813" spans="1:26" ht="15.75" customHeight="1">
+    <row r="813" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -24470,7 +24459,7 @@
       <c r="Y813" s="2"/>
       <c r="Z813" s="2"/>
     </row>
-    <row r="814" spans="1:26" ht="15.75" customHeight="1">
+    <row r="814" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -24498,7 +24487,7 @@
       <c r="Y814" s="2"/>
       <c r="Z814" s="2"/>
     </row>
-    <row r="815" spans="1:26" ht="15.75" customHeight="1">
+    <row r="815" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -24526,7 +24515,7 @@
       <c r="Y815" s="2"/>
       <c r="Z815" s="2"/>
     </row>
-    <row r="816" spans="1:26" ht="15.75" customHeight="1">
+    <row r="816" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -24554,7 +24543,7 @@
       <c r="Y816" s="2"/>
       <c r="Z816" s="2"/>
     </row>
-    <row r="817" spans="1:26" ht="15.75" customHeight="1">
+    <row r="817" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -24582,7 +24571,7 @@
       <c r="Y817" s="2"/>
       <c r="Z817" s="2"/>
     </row>
-    <row r="818" spans="1:26" ht="15.75" customHeight="1">
+    <row r="818" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -24610,7 +24599,7 @@
       <c r="Y818" s="2"/>
       <c r="Z818" s="2"/>
     </row>
-    <row r="819" spans="1:26" ht="15.75" customHeight="1">
+    <row r="819" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -24638,7 +24627,7 @@
       <c r="Y819" s="2"/>
       <c r="Z819" s="2"/>
     </row>
-    <row r="820" spans="1:26" ht="15.75" customHeight="1">
+    <row r="820" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -24666,7 +24655,7 @@
       <c r="Y820" s="2"/>
       <c r="Z820" s="2"/>
     </row>
-    <row r="821" spans="1:26" ht="15.75" customHeight="1">
+    <row r="821" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -24694,7 +24683,7 @@
       <c r="Y821" s="2"/>
       <c r="Z821" s="2"/>
     </row>
-    <row r="822" spans="1:26" ht="15.75" customHeight="1">
+    <row r="822" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -24722,7 +24711,7 @@
       <c r="Y822" s="2"/>
       <c r="Z822" s="2"/>
     </row>
-    <row r="823" spans="1:26" ht="15.75" customHeight="1">
+    <row r="823" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -24750,7 +24739,7 @@
       <c r="Y823" s="2"/>
       <c r="Z823" s="2"/>
     </row>
-    <row r="824" spans="1:26" ht="15.75" customHeight="1">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -24778,7 +24767,7 @@
       <c r="Y824" s="2"/>
       <c r="Z824" s="2"/>
     </row>
-    <row r="825" spans="1:26" ht="15.75" customHeight="1">
+    <row r="825" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -24806,7 +24795,7 @@
       <c r="Y825" s="2"/>
       <c r="Z825" s="2"/>
     </row>
-    <row r="826" spans="1:26" ht="15.75" customHeight="1">
+    <row r="826" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -24834,7 +24823,7 @@
       <c r="Y826" s="2"/>
       <c r="Z826" s="2"/>
     </row>
-    <row r="827" spans="1:26" ht="15.75" customHeight="1">
+    <row r="827" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -24862,7 +24851,7 @@
       <c r="Y827" s="2"/>
       <c r="Z827" s="2"/>
     </row>
-    <row r="828" spans="1:26" ht="15.75" customHeight="1">
+    <row r="828" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -24890,7 +24879,7 @@
       <c r="Y828" s="2"/>
       <c r="Z828" s="2"/>
     </row>
-    <row r="829" spans="1:26" ht="15.75" customHeight="1">
+    <row r="829" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -24918,7 +24907,7 @@
       <c r="Y829" s="2"/>
       <c r="Z829" s="2"/>
     </row>
-    <row r="830" spans="1:26" ht="15.75" customHeight="1">
+    <row r="830" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -24946,7 +24935,7 @@
       <c r="Y830" s="2"/>
       <c r="Z830" s="2"/>
     </row>
-    <row r="831" spans="1:26" ht="15.75" customHeight="1">
+    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -24974,7 +24963,7 @@
       <c r="Y831" s="2"/>
       <c r="Z831" s="2"/>
     </row>
-    <row r="832" spans="1:26" ht="15.75" customHeight="1">
+    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -25002,7 +24991,7 @@
       <c r="Y832" s="2"/>
       <c r="Z832" s="2"/>
     </row>
-    <row r="833" spans="1:26" ht="15.75" customHeight="1">
+    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25030,7 +25019,7 @@
       <c r="Y833" s="2"/>
       <c r="Z833" s="2"/>
     </row>
-    <row r="834" spans="1:26" ht="15.75" customHeight="1">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25058,7 +25047,7 @@
       <c r="Y834" s="2"/>
       <c r="Z834" s="2"/>
     </row>
-    <row r="835" spans="1:26" ht="15.75" customHeight="1">
+    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25086,7 +25075,7 @@
       <c r="Y835" s="2"/>
       <c r="Z835" s="2"/>
     </row>
-    <row r="836" spans="1:26" ht="15.75" customHeight="1">
+    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25114,7 +25103,7 @@
       <c r="Y836" s="2"/>
       <c r="Z836" s="2"/>
     </row>
-    <row r="837" spans="1:26" ht="15.75" customHeight="1">
+    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25142,7 +25131,7 @@
       <c r="Y837" s="2"/>
       <c r="Z837" s="2"/>
     </row>
-    <row r="838" spans="1:26" ht="15.75" customHeight="1">
+    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -25170,7 +25159,7 @@
       <c r="Y838" s="2"/>
       <c r="Z838" s="2"/>
     </row>
-    <row r="839" spans="1:26" ht="15.75" customHeight="1">
+    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -25198,7 +25187,7 @@
       <c r="Y839" s="2"/>
       <c r="Z839" s="2"/>
     </row>
-    <row r="840" spans="1:26" ht="15.75" customHeight="1">
+    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -25226,7 +25215,7 @@
       <c r="Y840" s="2"/>
       <c r="Z840" s="2"/>
     </row>
-    <row r="841" spans="1:26" ht="15.75" customHeight="1">
+    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -25254,7 +25243,7 @@
       <c r="Y841" s="2"/>
       <c r="Z841" s="2"/>
     </row>
-    <row r="842" spans="1:26" ht="15.75" customHeight="1">
+    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -25282,7 +25271,7 @@
       <c r="Y842" s="2"/>
       <c r="Z842" s="2"/>
     </row>
-    <row r="843" spans="1:26" ht="15.75" customHeight="1">
+    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -25310,7 +25299,7 @@
       <c r="Y843" s="2"/>
       <c r="Z843" s="2"/>
     </row>
-    <row r="844" spans="1:26" ht="15.75" customHeight="1">
+    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -25338,7 +25327,7 @@
       <c r="Y844" s="2"/>
       <c r="Z844" s="2"/>
     </row>
-    <row r="845" spans="1:26" ht="15.75" customHeight="1">
+    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -25366,7 +25355,7 @@
       <c r="Y845" s="2"/>
       <c r="Z845" s="2"/>
     </row>
-    <row r="846" spans="1:26" ht="15.75" customHeight="1">
+    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -25394,7 +25383,7 @@
       <c r="Y846" s="2"/>
       <c r="Z846" s="2"/>
     </row>
-    <row r="847" spans="1:26" ht="15.75" customHeight="1">
+    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -25422,7 +25411,7 @@
       <c r="Y847" s="2"/>
       <c r="Z847" s="2"/>
     </row>
-    <row r="848" spans="1:26" ht="15.75" customHeight="1">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -25450,7 +25439,7 @@
       <c r="Y848" s="2"/>
       <c r="Z848" s="2"/>
     </row>
-    <row r="849" spans="1:26" ht="15.75" customHeight="1">
+    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -25478,7 +25467,7 @@
       <c r="Y849" s="2"/>
       <c r="Z849" s="2"/>
     </row>
-    <row r="850" spans="1:26" ht="15.75" customHeight="1">
+    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -25506,7 +25495,7 @@
       <c r="Y850" s="2"/>
       <c r="Z850" s="2"/>
     </row>
-    <row r="851" spans="1:26" ht="15.75" customHeight="1">
+    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -25534,7 +25523,7 @@
       <c r="Y851" s="2"/>
       <c r="Z851" s="2"/>
     </row>
-    <row r="852" spans="1:26" ht="15.75" customHeight="1">
+    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -25562,7 +25551,7 @@
       <c r="Y852" s="2"/>
       <c r="Z852" s="2"/>
     </row>
-    <row r="853" spans="1:26" ht="15.75" customHeight="1">
+    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -25590,7 +25579,7 @@
       <c r="Y853" s="2"/>
       <c r="Z853" s="2"/>
     </row>
-    <row r="854" spans="1:26" ht="15.75" customHeight="1">
+    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -25618,7 +25607,7 @@
       <c r="Y854" s="2"/>
       <c r="Z854" s="2"/>
     </row>
-    <row r="855" spans="1:26" ht="15.75" customHeight="1">
+    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -25646,7 +25635,7 @@
       <c r="Y855" s="2"/>
       <c r="Z855" s="2"/>
     </row>
-    <row r="856" spans="1:26" ht="15.75" customHeight="1">
+    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -25674,7 +25663,7 @@
       <c r="Y856" s="2"/>
       <c r="Z856" s="2"/>
     </row>
-    <row r="857" spans="1:26" ht="15.75" customHeight="1">
+    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -25702,7 +25691,7 @@
       <c r="Y857" s="2"/>
       <c r="Z857" s="2"/>
     </row>
-    <row r="858" spans="1:26" ht="15.75" customHeight="1">
+    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -25730,7 +25719,7 @@
       <c r="Y858" s="2"/>
       <c r="Z858" s="2"/>
     </row>
-    <row r="859" spans="1:26" ht="15.75" customHeight="1">
+    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -25758,7 +25747,7 @@
       <c r="Y859" s="2"/>
       <c r="Z859" s="2"/>
     </row>
-    <row r="860" spans="1:26" ht="15.75" customHeight="1">
+    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -25786,7 +25775,7 @@
       <c r="Y860" s="2"/>
       <c r="Z860" s="2"/>
     </row>
-    <row r="861" spans="1:26" ht="15.75" customHeight="1">
+    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -25814,7 +25803,7 @@
       <c r="Y861" s="2"/>
       <c r="Z861" s="2"/>
     </row>
-    <row r="862" spans="1:26" ht="15.75" customHeight="1">
+    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -25842,7 +25831,7 @@
       <c r="Y862" s="2"/>
       <c r="Z862" s="2"/>
     </row>
-    <row r="863" spans="1:26" ht="15.75" customHeight="1">
+    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -25870,7 +25859,7 @@
       <c r="Y863" s="2"/>
       <c r="Z863" s="2"/>
     </row>
-    <row r="864" spans="1:26" ht="15.75" customHeight="1">
+    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -25898,7 +25887,7 @@
       <c r="Y864" s="2"/>
       <c r="Z864" s="2"/>
     </row>
-    <row r="865" spans="1:26" ht="15.75" customHeight="1">
+    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -25926,7 +25915,7 @@
       <c r="Y865" s="2"/>
       <c r="Z865" s="2"/>
     </row>
-    <row r="866" spans="1:26" ht="15.75" customHeight="1">
+    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -25954,7 +25943,7 @@
       <c r="Y866" s="2"/>
       <c r="Z866" s="2"/>
     </row>
-    <row r="867" spans="1:26" ht="15.75" customHeight="1">
+    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -25982,7 +25971,7 @@
       <c r="Y867" s="2"/>
       <c r="Z867" s="2"/>
     </row>
-    <row r="868" spans="1:26" ht="15.75" customHeight="1">
+    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -26010,7 +25999,7 @@
       <c r="Y868" s="2"/>
       <c r="Z868" s="2"/>
     </row>
-    <row r="869" spans="1:26" ht="15.75" customHeight="1">
+    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26038,7 +26027,7 @@
       <c r="Y869" s="2"/>
       <c r="Z869" s="2"/>
     </row>
-    <row r="870" spans="1:26" ht="15.75" customHeight="1">
+    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26066,7 +26055,7 @@
       <c r="Y870" s="2"/>
       <c r="Z870" s="2"/>
     </row>
-    <row r="871" spans="1:26" ht="15.75" customHeight="1">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26094,7 +26083,7 @@
       <c r="Y871" s="2"/>
       <c r="Z871" s="2"/>
     </row>
-    <row r="872" spans="1:26" ht="15.75" customHeight="1">
+    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -26122,7 +26111,7 @@
       <c r="Y872" s="2"/>
       <c r="Z872" s="2"/>
     </row>
-    <row r="873" spans="1:26" ht="15.75" customHeight="1">
+    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -26150,7 +26139,7 @@
       <c r="Y873" s="2"/>
       <c r="Z873" s="2"/>
     </row>
-    <row r="874" spans="1:26" ht="15.75" customHeight="1">
+    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -26178,7 +26167,7 @@
       <c r="Y874" s="2"/>
       <c r="Z874" s="2"/>
     </row>
-    <row r="875" spans="1:26" ht="15.75" customHeight="1">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -26206,7 +26195,7 @@
       <c r="Y875" s="2"/>
       <c r="Z875" s="2"/>
     </row>
-    <row r="876" spans="1:26" ht="15.75" customHeight="1">
+    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -26234,7 +26223,7 @@
       <c r="Y876" s="2"/>
       <c r="Z876" s="2"/>
     </row>
-    <row r="877" spans="1:26" ht="15.75" customHeight="1">
+    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -26262,7 +26251,7 @@
       <c r="Y877" s="2"/>
       <c r="Z877" s="2"/>
     </row>
-    <row r="878" spans="1:26" ht="15.75" customHeight="1">
+    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -26290,7 +26279,7 @@
       <c r="Y878" s="2"/>
       <c r="Z878" s="2"/>
     </row>
-    <row r="879" spans="1:26" ht="15.75" customHeight="1">
+    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -26318,7 +26307,7 @@
       <c r="Y879" s="2"/>
       <c r="Z879" s="2"/>
     </row>
-    <row r="880" spans="1:26" ht="15.75" customHeight="1">
+    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -26346,7 +26335,7 @@
       <c r="Y880" s="2"/>
       <c r="Z880" s="2"/>
     </row>
-    <row r="881" spans="1:26" ht="15.75" customHeight="1">
+    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -26374,7 +26363,7 @@
       <c r="Y881" s="2"/>
       <c r="Z881" s="2"/>
     </row>
-    <row r="882" spans="1:26" ht="15.75" customHeight="1">
+    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -26402,7 +26391,7 @@
       <c r="Y882" s="2"/>
       <c r="Z882" s="2"/>
     </row>
-    <row r="883" spans="1:26" ht="15.75" customHeight="1">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -26430,7 +26419,7 @@
       <c r="Y883" s="2"/>
       <c r="Z883" s="2"/>
     </row>
-    <row r="884" spans="1:26" ht="15.75" customHeight="1">
+    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -26458,7 +26447,7 @@
       <c r="Y884" s="2"/>
       <c r="Z884" s="2"/>
     </row>
-    <row r="885" spans="1:26" ht="15.75" customHeight="1">
+    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -26486,7 +26475,7 @@
       <c r="Y885" s="2"/>
       <c r="Z885" s="2"/>
     </row>
-    <row r="886" spans="1:26" ht="15.75" customHeight="1">
+    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -26514,7 +26503,7 @@
       <c r="Y886" s="2"/>
       <c r="Z886" s="2"/>
     </row>
-    <row r="887" spans="1:26" ht="15.75" customHeight="1">
+    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -26542,7 +26531,7 @@
       <c r="Y887" s="2"/>
       <c r="Z887" s="2"/>
     </row>
-    <row r="888" spans="1:26" ht="15.75" customHeight="1">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -26570,7 +26559,7 @@
       <c r="Y888" s="2"/>
       <c r="Z888" s="2"/>
     </row>
-    <row r="889" spans="1:26" ht="15.75" customHeight="1">
+    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -26598,7 +26587,7 @@
       <c r="Y889" s="2"/>
       <c r="Z889" s="2"/>
     </row>
-    <row r="890" spans="1:26" ht="15.75" customHeight="1">
+    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -26626,7 +26615,7 @@
       <c r="Y890" s="2"/>
       <c r="Z890" s="2"/>
     </row>
-    <row r="891" spans="1:26" ht="15.75" customHeight="1">
+    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -26654,7 +26643,7 @@
       <c r="Y891" s="2"/>
       <c r="Z891" s="2"/>
     </row>
-    <row r="892" spans="1:26" ht="15.75" customHeight="1">
+    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -26682,7 +26671,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="15.75" customHeight="1">
+    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -26710,7 +26699,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="15.75" customHeight="1">
+    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -26738,7 +26727,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="15.75" customHeight="1">
+    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -26766,7 +26755,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="15.75" customHeight="1">
+    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -26794,7 +26783,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="15.75" customHeight="1">
+    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -26822,7 +26811,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="15.75" customHeight="1">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -26850,7 +26839,7 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="15.75" customHeight="1">
+    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -26878,7 +26867,7 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="15.75" customHeight="1">
+    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -26906,7 +26895,7 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="15.75" customHeight="1">
+    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -26934,7 +26923,7 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="15.75" customHeight="1">
+    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -26962,7 +26951,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="15.75" customHeight="1">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -26990,7 +26979,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="15.75" customHeight="1">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27018,7 +27007,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="15.75" customHeight="1">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27046,7 +27035,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="15.75" customHeight="1">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27074,7 +27063,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="15.75" customHeight="1">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -27102,7 +27091,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="15.75" customHeight="1">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -27130,7 +27119,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="15.75" customHeight="1">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -27158,7 +27147,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="15.75" customHeight="1">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -27186,7 +27175,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="15.75" customHeight="1">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -27214,7 +27203,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="15.75" customHeight="1">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -27242,7 +27231,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="15.75" customHeight="1">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -27270,7 +27259,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="15.75" customHeight="1">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -27298,7 +27287,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="15.75" customHeight="1">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -27326,7 +27315,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="15.75" customHeight="1">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -27354,7 +27343,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="15.75" customHeight="1">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -27382,7 +27371,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="15.75" customHeight="1">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -27410,7 +27399,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="15.75" customHeight="1">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -27438,7 +27427,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" spans="1:26" ht="15.75" customHeight="1">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -27466,7 +27455,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" spans="1:26" ht="15.75" customHeight="1">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -27494,7 +27483,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" spans="1:26" ht="15.75" customHeight="1">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -27522,7 +27511,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" spans="1:26" ht="15.75" customHeight="1">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -27550,7 +27539,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" spans="1:26" ht="15.75" customHeight="1">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -27578,7 +27567,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" spans="1:26" ht="15.75" customHeight="1">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -27606,7 +27595,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" spans="1:26" ht="15.75" customHeight="1">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -27634,7 +27623,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" spans="1:26" ht="15.75" customHeight="1">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -27662,7 +27651,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" spans="1:26" ht="15.75" customHeight="1">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -27690,7 +27679,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -27718,7 +27707,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" spans="1:26" ht="15.75" customHeight="1">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -27746,7 +27735,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" spans="1:26" ht="15.75" customHeight="1">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -27774,7 +27763,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" spans="1:26" ht="15.75" customHeight="1">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -27802,7 +27791,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" spans="1:26" ht="15.75" customHeight="1">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -27830,7 +27819,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" spans="1:26" ht="15.75" customHeight="1">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -27858,7 +27847,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" spans="1:26" ht="15.75" customHeight="1">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -27886,7 +27875,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" spans="1:26" ht="15.75" customHeight="1">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -27914,7 +27903,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" spans="1:26" ht="15.75" customHeight="1">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -27942,7 +27931,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" spans="1:26" ht="15.75" customHeight="1">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -27970,7 +27959,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" spans="1:26" ht="15.75" customHeight="1">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -27998,7 +27987,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" spans="1:26" ht="15.75" customHeight="1">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28026,7 +28015,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" spans="1:26" ht="15.75" customHeight="1">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28054,7 +28043,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" spans="1:26" ht="15.75" customHeight="1">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -28082,7 +28071,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" spans="1:26" ht="15.75" customHeight="1">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -28110,7 +28099,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" spans="1:26" ht="15.75" customHeight="1">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -28138,7 +28127,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" spans="1:26" ht="15.75" customHeight="1">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -28166,7 +28155,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" spans="1:26" ht="15.75" customHeight="1">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -28194,7 +28183,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" spans="1:26" ht="15.75" customHeight="1">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -28222,7 +28211,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" spans="1:26" ht="15.75" customHeight="1">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -28250,7 +28239,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" spans="1:26" ht="15.75" customHeight="1">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -28278,7 +28267,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" spans="1:26" ht="15.75" customHeight="1">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -28306,7 +28295,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" spans="1:26" ht="15.75" customHeight="1">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -28334,7 +28323,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" spans="1:26" ht="15.75" customHeight="1">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -28362,7 +28351,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" spans="1:26" ht="15.75" customHeight="1">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -28390,7 +28379,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" spans="1:26" ht="15.75" customHeight="1">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -28418,7 +28407,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" spans="1:26" ht="15.75" customHeight="1">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -28446,7 +28435,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" spans="1:26" ht="15.75" customHeight="1">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -28474,7 +28463,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" spans="1:26" ht="15.75" customHeight="1">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -28502,7 +28491,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" spans="1:26" ht="15.75" customHeight="1">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -28530,7 +28519,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" spans="1:26" ht="15.75" customHeight="1">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -28558,7 +28547,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" spans="1:26" ht="15.75" customHeight="1">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -28586,7 +28575,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" spans="1:26" ht="15.75" customHeight="1">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -28614,7 +28603,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" spans="1:26" ht="15.75" customHeight="1">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -28642,7 +28631,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" spans="1:26" ht="15.75" customHeight="1">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -28670,7 +28659,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" spans="1:26" ht="15.75" customHeight="1">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -28698,7 +28687,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" spans="1:26" ht="15.75" customHeight="1">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -28726,7 +28715,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" spans="1:26" ht="15.75" customHeight="1">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -28754,7 +28743,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" spans="1:26" ht="15.75" customHeight="1">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -28782,7 +28771,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" spans="1:26" ht="15.75" customHeight="1">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -28810,7 +28799,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" spans="1:26" ht="15.75" customHeight="1">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -28838,7 +28827,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" spans="1:26" ht="15.75" customHeight="1">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -28866,7 +28855,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" spans="1:26" ht="15.75" customHeight="1">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -28894,7 +28883,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" spans="1:26" ht="15.75" customHeight="1">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -28922,7 +28911,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" spans="1:26" ht="15.75" customHeight="1">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -28950,7 +28939,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" spans="1:26" ht="15.75" customHeight="1">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -28978,7 +28967,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" spans="1:26" ht="15.75" customHeight="1">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -29006,7 +28995,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" spans="1:26" ht="15.75" customHeight="1">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -29034,7 +29023,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" spans="1:26" ht="15.75" customHeight="1">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -29062,7 +29051,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" spans="1:26" ht="15.75" customHeight="1">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -29090,7 +29079,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" spans="1:26" ht="15.75" customHeight="1">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -29118,7 +29107,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" spans="1:26" ht="15.75" customHeight="1">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -29146,7 +29135,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" spans="1:26" ht="15.75" customHeight="1">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -29174,7 +29163,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" spans="1:26" ht="15.75" customHeight="1">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -29202,7 +29191,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -29230,7 +29219,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -29258,7 +29247,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -29286,7 +29275,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -29314,7 +29303,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -29342,7 +29331,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -29370,7 +29359,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -29398,7 +29387,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" spans="1:26" ht="15.75" customHeight="1">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -29426,7 +29415,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" spans="1:26" ht="15.75" customHeight="1">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -29454,7 +29443,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" spans="1:26" ht="15.75" customHeight="1">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -29482,7 +29471,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" spans="1:26" ht="15.75" customHeight="1">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -29510,7 +29499,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" spans="1:26" ht="15.75" customHeight="1">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -29538,7 +29527,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" spans="1:26" ht="15.75" customHeight="1">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -29566,7 +29555,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -29594,7 +29583,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" spans="1:26" ht="15.75" customHeight="1">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -29622,7 +29611,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -29650,7 +29639,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -29678,7 +29667,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>

--- a/LR3/table_1_17.xlsx
+++ b/LR3/table_1_17.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26013"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64688F22-F510-4B07-AD93-0EF49A0B3A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26019"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B1DF7B-4DF8-46F8-9658-202C69EE55ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,7 +42,7 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф, руб/кв.м.</t>
+    <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
     <t>Сумма, руб.</t>
@@ -96,7 +99,7 @@
     <t>Карманов</t>
   </si>
   <si>
-    <t>Ко́канов</t>
+    <t>Коканов</t>
   </si>
   <si>
     <t>Мохамед</t>
@@ -159,7 +162,7 @@
     <t>Чепурченко</t>
   </si>
   <si>
-    <t>Шаба́нов</t>
+    <t>Шабанов</t>
   </si>
   <si>
     <t>Шаймарданова</t>
@@ -187,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,11 +202,22 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -222,81 +236,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -309,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -325,7 +290,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -337,7 +302,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -354,7 +319,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -384,29 +349,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -436,23 +384,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -597,7 +528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,1730 +536,1822 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15" style="6" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <f>A1*1.1</f>
         <v>18.700000000000003</v>
       </c>
-      <c r="E3" s="1">
-        <f>C3 * D3</f>
+      <c r="E3" s="5">
+        <f>C3*D3</f>
         <v>1309.0000000000002</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="7">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="5">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
         <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="5">
         <f>E3+J3</f>
         <v>1309.0000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <f>A3 + 1</f>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
-        <f>C3 - 0.5</f>
+      <c r="C4" s="5">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <f>D3</f>
         <v>18.700000000000003</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4 * D4</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E33" si="0">C4*D4</f>
         <v>1299.6500000000001</v>
       </c>
-      <c r="F4" s="5">
-        <f>F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="7">
+        <f>$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="7">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="5">
         <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="5">
         <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>1299.6500000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="4">A4 + 1</f>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4 - 0.5</f>
+      <c r="C5" s="5">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>18.700000000000003</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>1290.3000000000002</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" ref="F5:F38" si="7">F4</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="7">
+        <f t="shared" ref="F5:F38" si="7">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="5">
         <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>1290.3000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="5">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>1280.9500000000003</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="5">
         <f t="shared" si="3"/>
         <v>1280.9500000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>1271.6000000000001</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="5">
         <f t="shared" si="3"/>
         <v>1271.6000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>1262.2500000000002</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="5">
         <f t="shared" si="3"/>
         <v>1262.2500000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>1252.9000000000001</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
+      <c r="I9" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="5">
         <f t="shared" si="3"/>
         <v>1252.9000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>1243.5500000000002</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="5">
         <f t="shared" si="3"/>
         <v>1243.5500000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>1234.2000000000003</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
-        <f t="shared" si="8"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
+      <c r="I11" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="5">
         <f t="shared" si="3"/>
         <v>1234.2000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>1224.8500000000001</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
+      <c r="I12" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="3"/>
         <v>1234.8500000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>1215.5000000000002</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="I13" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="5">
         <f t="shared" si="3"/>
         <v>1235.5000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>1206.1500000000001</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="I14" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="5">
         <f t="shared" si="3"/>
         <v>1236.1500000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="4">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="5">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="D15" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>1196.8000000000002</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="I15" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="5">
         <f t="shared" si="3"/>
         <v>1236.8000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="4">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="5">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>1187.4500000000003</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
+      <c r="I16" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="5">
         <f t="shared" si="3"/>
         <v>1237.4500000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>1178.1000000000001</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="I17" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="5">
         <f t="shared" si="3"/>
         <v>1238.1000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="5">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>1168.7500000000002</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
+      <c r="I18" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="5">
         <f t="shared" si="3"/>
         <v>1238.7500000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="1">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="5">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>1159.4000000000001</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="2"/>
+      <c r="I19" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
+        <f>H19*I19</f>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="5">
         <f t="shared" si="3"/>
         <v>1239.4000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="4">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="5">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>1150.0500000000002</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
+      <c r="I20" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
-        <f t="shared" si="3"/>
+      <c r="K20" s="5">
+        <f>E20+J20</f>
         <v>1240.0500000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="4">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="5">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>1140.7000000000003</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="H21" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="5">
         <f t="shared" si="3"/>
         <v>1240.7000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="4">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="5">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>1131.3500000000001</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
+      <c r="I22" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="5">
         <f t="shared" si="3"/>
         <v>1241.3500000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="4">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="5">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>1122.0000000000002</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="I23" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="5">
         <f t="shared" si="3"/>
         <v>1242.0000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="4">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="5">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>1112.6500000000001</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="5">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
+      <c r="I24" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
         <v>1242.6500000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="4">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="5">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="D25" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>1103.3000000000002</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="5">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
+      <c r="I25" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="5">
         <f t="shared" si="3"/>
         <v>1243.3000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="4">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="5">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>1093.9500000000003</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
+      <c r="I26" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="5">
         <f t="shared" si="3"/>
         <v>1243.9500000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="4">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="5">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>1084.6000000000001</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="5">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="I27" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="5">
         <f t="shared" si="3"/>
         <v>1244.6000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="4">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="5">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>1075.2500000000002</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
+      <c r="I28" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="5">
         <f t="shared" si="3"/>
         <v>1245.2500000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1">
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="4">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="5">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>1065.9000000000001</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="5">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="I29" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="5">
         <f t="shared" si="3"/>
         <v>1245.9000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1">
-        <f>A29 + 1</f>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="4">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="5">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>1056.5500000000002</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="5">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="I30" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="5">
         <f t="shared" si="3"/>
         <v>1246.5500000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="4">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="5">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>1047.2000000000003</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="7">
         <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="I31" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="5">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="5">
         <f t="shared" si="3"/>
         <v>1247.2000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="4">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="5">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>1037.8500000000001</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="7">
         <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="5">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
+      <c r="I32" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="5">
         <f t="shared" si="3"/>
         <v>1247.8500000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="4">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="D33" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>1028.5000000000002</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
+      <c r="I33" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="5">
         <f t="shared" si="3"/>
         <v>1248.5000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="1">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="4">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="5">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="6"/>
-        <v>18.700000000000003</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
+      <c r="D34" s="5">
+        <f t="shared" si="6"/>
+        <v>18.700000000000003</v>
+      </c>
+      <c r="E34" s="5">
+        <f>C34*D34</f>
         <v>1019.1500000000002</v>
       </c>
-      <c r="F34" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="5">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
+      <c r="I34" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="5">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="5">
         <f t="shared" si="3"/>
         <v>1249.1500000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1">
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="4">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="5">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="5">
         <f>D3/2</f>
         <v>9.3500000000000014</v>
       </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
+      <c r="E35" s="5">
+        <f>C35*D35</f>
         <v>504.90000000000009</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="7">
         <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="5">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
+      <c r="I35" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
-        <f t="shared" si="3"/>
+      <c r="K35" s="5">
+        <f>E35+J35</f>
         <v>744.90000000000009</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="1">
-        <f>A35 + 1</f>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="4">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="5">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+      <c r="D36" s="5">
+        <f>D3/2</f>
         <v>9.3500000000000014</v>
       </c>
-      <c r="E36" s="1">
-        <f t="shared" si="0"/>
+      <c r="E36" s="5">
+        <f t="shared" ref="E36:E38" si="10">C36*D36</f>
         <v>500.22500000000008</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
+      <c r="I36" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="5">
         <f t="shared" si="3"/>
         <v>750.22500000000014</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="1">
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="4">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="5">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="5">
+        <f>D3/2</f>
+        <v>9.3500000000000014</v>
+      </c>
+      <c r="E37" s="5">
         <f t="shared" si="10"/>
+        <v>495.55000000000007</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="8"/>
+        <v>44839</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="K37" s="5">
+        <f>E37+J37</f>
+        <v>755.55000000000007</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+      <c r="D38" s="5">
+        <f>D3/2</f>
         <v>9.3500000000000014</v>
       </c>
-      <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>495.55000000000007</v>
-      </c>
-      <c r="F37" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
-        <f t="shared" si="8"/>
-        <v>44839</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="K37" s="1">
-        <f t="shared" si="3"/>
-        <v>755.55000000000007</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="1">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="5"/>
-        <v>52.5</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="E38" s="5">
         <f t="shared" si="10"/>
-        <v>9.3500000000000014</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
         <v>490.87500000000006</v>
       </c>
-      <c r="F38" s="5">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="5">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
+      <c r="I38" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="5">
         <f t="shared" si="3"/>
         <v>760.875</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="B40" s="6" t="s">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>43021</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="B41" s="6" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="B41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="8">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="B42" s="6" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="B43" s="6" t="s">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <f>MAX(K3:K38)</f>
         <v>1309.0000000000002</v>
       </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>